--- a/Excel/2021.08.07.xlsx
+++ b/Excel/2021.08.07.xlsx
@@ -11769,10 +11769,10 @@
         <v>94641</v>
       </c>
       <c r="D2" t="n">
-        <v>-12363</v>
+        <v>-12361</v>
       </c>
       <c r="E2" t="n">
-        <v>82278</v>
+        <v>82280</v>
       </c>
     </row>
     <row r="3">
@@ -11790,10 +11790,10 @@
         <v>77266</v>
       </c>
       <c r="D3" t="n">
-        <v>2981</v>
+        <v>2986</v>
       </c>
       <c r="E3" t="n">
-        <v>80247</v>
+        <v>80252</v>
       </c>
     </row>
     <row r="4">
@@ -11811,10 +11811,10 @@
         <v>63869</v>
       </c>
       <c r="D4" t="n">
-        <v>-3372</v>
+        <v>-3371</v>
       </c>
       <c r="E4" t="n">
-        <v>60497</v>
+        <v>60498</v>
       </c>
     </row>
     <row r="5">
@@ -11895,10 +11895,10 @@
         <v>33194</v>
       </c>
       <c r="D8" t="n">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="E8" t="n">
-        <v>34624</v>
+        <v>34627</v>
       </c>
     </row>
     <row r="9">
@@ -11916,10 +11916,10 @@
         <v>30598</v>
       </c>
       <c r="D9" t="n">
-        <v>-3512</v>
+        <v>-3510</v>
       </c>
       <c r="E9" t="n">
-        <v>27086</v>
+        <v>27088</v>
       </c>
     </row>
     <row r="10">
@@ -11979,10 +11979,10 @@
         <v>26507</v>
       </c>
       <c r="D12" t="n">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="E12" t="n">
-        <v>27429</v>
+        <v>27434</v>
       </c>
     </row>
     <row r="13">
@@ -12000,10 +12000,10 @@
         <v>26205</v>
       </c>
       <c r="D13" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E13" t="n">
-        <v>26198</v>
+        <v>26200</v>
       </c>
     </row>
     <row r="14">
@@ -12042,10 +12042,10 @@
         <v>22439</v>
       </c>
       <c r="D15" t="n">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="E15" t="n">
-        <v>25361</v>
+        <v>25363</v>
       </c>
     </row>
     <row r="16">
@@ -12063,10 +12063,10 @@
         <v>21273</v>
       </c>
       <c r="D16" t="n">
-        <v>-37</v>
+        <v>-35</v>
       </c>
       <c r="E16" t="n">
-        <v>21236</v>
+        <v>21238</v>
       </c>
     </row>
     <row r="17">
@@ -12084,10 +12084,10 @@
         <v>21119</v>
       </c>
       <c r="D17" t="n">
-        <v>12209</v>
+        <v>12217</v>
       </c>
       <c r="E17" t="n">
-        <v>33328</v>
+        <v>33336</v>
       </c>
     </row>
     <row r="18">
@@ -12105,10 +12105,10 @@
         <v>20297</v>
       </c>
       <c r="D18" t="n">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E18" t="n">
-        <v>21586</v>
+        <v>21588</v>
       </c>
     </row>
     <row r="19">
@@ -12126,10 +12126,10 @@
         <v>20094</v>
       </c>
       <c r="D19" t="n">
-        <v>-506</v>
+        <v>-505</v>
       </c>
       <c r="E19" t="n">
-        <v>19588</v>
+        <v>19589</v>
       </c>
     </row>
     <row r="20">
@@ -12147,10 +12147,10 @@
         <v>18983</v>
       </c>
       <c r="D20" t="n">
-        <v>-785</v>
+        <v>-783</v>
       </c>
       <c r="E20" t="n">
-        <v>18198</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="21" ht="28.8" customHeight="1">
@@ -12168,10 +12168,10 @@
         <v>18457</v>
       </c>
       <c r="D21" t="n">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E21" t="n">
-        <v>19750</v>
+        <v>19751</v>
       </c>
     </row>
     <row r="22">
@@ -12189,10 +12189,10 @@
         <v>17796</v>
       </c>
       <c r="D22" t="n">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="E22" t="n">
-        <v>18911</v>
+        <v>18913</v>
       </c>
     </row>
     <row r="23">
@@ -12210,10 +12210,10 @@
         <v>17662</v>
       </c>
       <c r="D23" t="n">
-        <v>-348</v>
+        <v>-346</v>
       </c>
       <c r="E23" t="n">
-        <v>17314</v>
+        <v>17316</v>
       </c>
     </row>
     <row r="24">
@@ -12231,10 +12231,10 @@
         <v>17108</v>
       </c>
       <c r="D24" t="n">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="E24" t="n">
-        <v>19006</v>
+        <v>19007</v>
       </c>
     </row>
     <row r="25">
@@ -12252,10 +12252,10 @@
         <v>16570</v>
       </c>
       <c r="D25" t="n">
-        <v>-377</v>
+        <v>-376</v>
       </c>
       <c r="E25" t="n">
-        <v>16193</v>
+        <v>16194</v>
       </c>
     </row>
     <row r="26">
@@ -12273,10 +12273,10 @@
         <v>16472</v>
       </c>
       <c r="D26" t="n">
-        <v>-1684</v>
+        <v>-1683</v>
       </c>
       <c r="E26" t="n">
-        <v>14788</v>
+        <v>14789</v>
       </c>
     </row>
     <row r="27">
@@ -12294,10 +12294,10 @@
         <v>15899</v>
       </c>
       <c r="D27" t="n">
-        <v>-687</v>
+        <v>-686</v>
       </c>
       <c r="E27" t="n">
-        <v>15212</v>
+        <v>15213</v>
       </c>
     </row>
     <row r="28">
@@ -12336,10 +12336,10 @@
         <v>14362</v>
       </c>
       <c r="D29" t="n">
-        <v>-1266</v>
+        <v>-1267</v>
       </c>
       <c r="E29" t="n">
-        <v>13096</v>
+        <v>13095</v>
       </c>
     </row>
     <row r="30">
@@ -12357,10 +12357,10 @@
         <v>13367</v>
       </c>
       <c r="D30" t="n">
-        <v>-362</v>
+        <v>-361</v>
       </c>
       <c r="E30" t="n">
-        <v>13005</v>
+        <v>13006</v>
       </c>
     </row>
     <row r="31">
@@ -12378,10 +12378,10 @@
         <v>13322</v>
       </c>
       <c r="D31" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E31" t="n">
-        <v>13755</v>
+        <v>13757</v>
       </c>
     </row>
     <row r="32">
@@ -12462,10 +12462,10 @@
         <v>12783</v>
       </c>
       <c r="D35" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E35" t="n">
-        <v>13039</v>
+        <v>13040</v>
       </c>
     </row>
     <row r="36">
@@ -12483,10 +12483,10 @@
         <v>12530</v>
       </c>
       <c r="D36" t="n">
-        <v>-1201</v>
+        <v>-1202</v>
       </c>
       <c r="E36" t="n">
-        <v>11329</v>
+        <v>11328</v>
       </c>
     </row>
     <row r="37">
@@ -12546,10 +12546,10 @@
         <v>11175</v>
       </c>
       <c r="D39" t="n">
-        <v>-729</v>
+        <v>-728</v>
       </c>
       <c r="E39" t="n">
-        <v>10446</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="40">
@@ -12567,10 +12567,10 @@
         <v>11172</v>
       </c>
       <c r="D40" t="n">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="E40" t="n">
-        <v>11067</v>
+        <v>11068</v>
       </c>
     </row>
     <row r="41">
@@ -12609,10 +12609,10 @@
         <v>10695</v>
       </c>
       <c r="D42" t="n">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E42" t="n">
-        <v>11728</v>
+        <v>11730</v>
       </c>
     </row>
     <row r="43">
@@ -12651,10 +12651,10 @@
         <v>10622</v>
       </c>
       <c r="D44" t="n">
-        <v>-54</v>
+        <v>-52</v>
       </c>
       <c r="E44" t="n">
-        <v>10568</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="45">
@@ -12672,10 +12672,10 @@
         <v>10462</v>
       </c>
       <c r="D45" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E45" t="n">
-        <v>10641</v>
+        <v>10645</v>
       </c>
     </row>
     <row r="46">
@@ -12693,10 +12693,10 @@
         <v>10446</v>
       </c>
       <c r="D46" t="n">
-        <v>-164</v>
+        <v>-161</v>
       </c>
       <c r="E46" t="n">
-        <v>10282</v>
+        <v>10285</v>
       </c>
     </row>
     <row r="47">
@@ -12735,10 +12735,10 @@
         <v>9811</v>
       </c>
       <c r="D48" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E48" t="n">
-        <v>9876</v>
+        <v>9877</v>
       </c>
     </row>
     <row r="49">
@@ -12799,7 +12799,7 @@
       </c>
       <c r="C52" s="11" t="n"/>
       <c r="E52" t="n">
-        <v>13124</v>
+        <v>13127</v>
       </c>
     </row>
     <row r="53">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="C54" s="11" t="n"/>
       <c r="E54" t="n">
-        <v>9360</v>
+        <v>9361</v>
       </c>
     </row>
     <row r="55">

--- a/Excel/2021.08.07.xlsx
+++ b/Excel/2021.08.07.xlsx
@@ -24026,10 +24026,10 @@
         <v>1456415</v>
       </c>
       <c r="R32" t="n">
-        <v>134096</v>
+        <v>134401</v>
       </c>
       <c r="S32" t="n">
-        <v>1590511</v>
+        <v>1590816</v>
       </c>
     </row>
     <row r="33">
@@ -33629,10 +33629,10 @@
         <v>194251</v>
       </c>
       <c r="D2" t="n">
-        <v>-12075</v>
+        <v>-12067</v>
       </c>
       <c r="E2" t="n">
-        <v>182176</v>
+        <v>182184</v>
       </c>
     </row>
     <row r="3">
@@ -33650,10 +33650,10 @@
         <v>161956</v>
       </c>
       <c r="D3" t="n">
-        <v>-5121</v>
+        <v>-5111</v>
       </c>
       <c r="E3" t="n">
-        <v>156835</v>
+        <v>156845</v>
       </c>
     </row>
     <row r="4">
@@ -33671,10 +33671,10 @@
         <v>156450</v>
       </c>
       <c r="D4" t="n">
-        <v>-1756</v>
+        <v>-1753</v>
       </c>
       <c r="E4" t="n">
-        <v>154694</v>
+        <v>154697</v>
       </c>
     </row>
     <row r="5">
@@ -33692,10 +33692,10 @@
         <v>155992</v>
       </c>
       <c r="D5" t="n">
-        <v>-19030</v>
+        <v>-19028</v>
       </c>
       <c r="E5" t="n">
-        <v>136962</v>
+        <v>136964</v>
       </c>
     </row>
     <row r="6">
@@ -33713,10 +33713,10 @@
         <v>145866</v>
       </c>
       <c r="D6" t="n">
-        <v>-14216</v>
+        <v>-14210</v>
       </c>
       <c r="E6" t="n">
-        <v>131650</v>
+        <v>131656</v>
       </c>
     </row>
     <row r="7">
@@ -33734,10 +33734,10 @@
         <v>139632</v>
       </c>
       <c r="D7" t="n">
-        <v>-10721</v>
+        <v>-10712</v>
       </c>
       <c r="E7" t="n">
-        <v>128911</v>
+        <v>128920</v>
       </c>
     </row>
     <row r="8">
@@ -33776,10 +33776,10 @@
         <v>93126</v>
       </c>
       <c r="D9" t="n">
-        <v>-12180</v>
+        <v>-12175</v>
       </c>
       <c r="E9" t="n">
-        <v>80946</v>
+        <v>80951</v>
       </c>
     </row>
     <row r="10">
@@ -33797,10 +33797,10 @@
         <v>78250</v>
       </c>
       <c r="D10" t="n">
-        <v>-16339</v>
+        <v>-16337</v>
       </c>
       <c r="E10" t="n">
-        <v>61911</v>
+        <v>61913</v>
       </c>
     </row>
     <row r="11">
@@ -33818,10 +33818,10 @@
         <v>76955</v>
       </c>
       <c r="D11" t="n">
-        <v>-905</v>
+        <v>-902</v>
       </c>
       <c r="E11" t="n">
-        <v>76050</v>
+        <v>76053</v>
       </c>
     </row>
     <row r="12">
@@ -33839,10 +33839,10 @@
         <v>75805</v>
       </c>
       <c r="D12" t="n">
-        <v>-3150</v>
+        <v>-3147</v>
       </c>
       <c r="E12" t="n">
-        <v>72655</v>
+        <v>72658</v>
       </c>
     </row>
     <row r="13">
@@ -33860,10 +33860,10 @@
         <v>74500</v>
       </c>
       <c r="D13" t="n">
-        <v>-2792</v>
+        <v>-2788</v>
       </c>
       <c r="E13" t="n">
-        <v>71708</v>
+        <v>71712</v>
       </c>
     </row>
     <row r="14">
@@ -33881,10 +33881,10 @@
         <v>72046</v>
       </c>
       <c r="D14" t="n">
-        <v>-12979</v>
+        <v>-12975</v>
       </c>
       <c r="E14" t="n">
-        <v>59067</v>
+        <v>59071</v>
       </c>
     </row>
     <row r="15">
@@ -33902,10 +33902,10 @@
         <v>70294</v>
       </c>
       <c r="D15" t="n">
-        <v>-3181</v>
+        <v>-3180</v>
       </c>
       <c r="E15" t="n">
-        <v>67113</v>
+        <v>67114</v>
       </c>
     </row>
     <row r="16">
@@ -33944,10 +33944,10 @@
         <v>68315</v>
       </c>
       <c r="D17" t="n">
-        <v>-4232</v>
+        <v>-4226</v>
       </c>
       <c r="E17" t="n">
-        <v>64083</v>
+        <v>64089</v>
       </c>
     </row>
     <row r="18">
@@ -33965,10 +33965,10 @@
         <v>67934</v>
       </c>
       <c r="D18" t="n">
-        <v>-5880</v>
+        <v>-5879</v>
       </c>
       <c r="E18" t="n">
-        <v>62054</v>
+        <v>62055</v>
       </c>
     </row>
     <row r="19">
@@ -33986,10 +33986,10 @@
         <v>67763</v>
       </c>
       <c r="D19" t="n">
-        <v>-2986</v>
+        <v>-2988</v>
       </c>
       <c r="E19" t="n">
-        <v>64777</v>
+        <v>64775</v>
       </c>
     </row>
     <row r="20">
@@ -34028,10 +34028,10 @@
         <v>63425</v>
       </c>
       <c r="D21" t="n">
-        <v>-17278</v>
+        <v>-17272</v>
       </c>
       <c r="E21" t="n">
-        <v>46147</v>
+        <v>46153</v>
       </c>
     </row>
     <row r="22">
@@ -34049,10 +34049,10 @@
         <v>60083</v>
       </c>
       <c r="D22" t="n">
-        <v>-2167</v>
+        <v>-2165</v>
       </c>
       <c r="E22" t="n">
-        <v>57916</v>
+        <v>57918</v>
       </c>
     </row>
     <row r="23">
@@ -34070,10 +34070,10 @@
         <v>57384</v>
       </c>
       <c r="D23" t="n">
-        <v>-7654</v>
+        <v>-7653</v>
       </c>
       <c r="E23" t="n">
-        <v>49730</v>
+        <v>49731</v>
       </c>
     </row>
     <row r="24">
@@ -34091,10 +34091,10 @@
         <v>57239</v>
       </c>
       <c r="D24" t="n">
-        <v>-5345</v>
+        <v>-5343</v>
       </c>
       <c r="E24" t="n">
-        <v>51894</v>
+        <v>51896</v>
       </c>
     </row>
     <row r="25">
@@ -34112,10 +34112,10 @@
         <v>57190</v>
       </c>
       <c r="D25" t="n">
-        <v>-2183</v>
+        <v>-2186</v>
       </c>
       <c r="E25" t="n">
-        <v>55007</v>
+        <v>55004</v>
       </c>
     </row>
     <row r="26">
@@ -34133,10 +34133,10 @@
         <v>54383</v>
       </c>
       <c r="D26" t="n">
-        <v>-5596</v>
+        <v>-5597</v>
       </c>
       <c r="E26" t="n">
-        <v>48787</v>
+        <v>48786</v>
       </c>
     </row>
     <row r="27">
@@ -34175,10 +34175,10 @@
         <v>50496</v>
       </c>
       <c r="D28" t="n">
-        <v>-1309</v>
+        <v>-1308</v>
       </c>
       <c r="E28" t="n">
-        <v>49187</v>
+        <v>49188</v>
       </c>
     </row>
     <row r="29">
@@ -34217,10 +34217,10 @@
         <v>48976</v>
       </c>
       <c r="D30" t="n">
-        <v>-6877</v>
+        <v>-6879</v>
       </c>
       <c r="E30" t="n">
-        <v>42099</v>
+        <v>42097</v>
       </c>
     </row>
     <row r="31">
@@ -34238,10 +34238,10 @@
         <v>48036</v>
       </c>
       <c r="D31" t="n">
-        <v>-6858</v>
+        <v>-6856</v>
       </c>
       <c r="E31" t="n">
-        <v>41178</v>
+        <v>41180</v>
       </c>
     </row>
     <row r="32">
@@ -34259,10 +34259,10 @@
         <v>47915</v>
       </c>
       <c r="D32" t="n">
-        <v>-5810</v>
+        <v>-5806</v>
       </c>
       <c r="E32" t="n">
-        <v>42105</v>
+        <v>42109</v>
       </c>
     </row>
     <row r="33">
@@ -34301,10 +34301,10 @@
         <v>47193</v>
       </c>
       <c r="D34" t="n">
-        <v>-3478</v>
+        <v>-3477</v>
       </c>
       <c r="E34" t="n">
-        <v>43715</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="35">
@@ -34322,10 +34322,10 @@
         <v>45617</v>
       </c>
       <c r="D35" t="n">
-        <v>4095</v>
+        <v>4103</v>
       </c>
       <c r="E35" t="n">
-        <v>49712</v>
+        <v>49720</v>
       </c>
     </row>
     <row r="36">
@@ -34343,10 +34343,10 @@
         <v>43189</v>
       </c>
       <c r="D36" t="n">
-        <v>-523</v>
+        <v>-520</v>
       </c>
       <c r="E36" t="n">
-        <v>42666</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="37">
@@ -34364,10 +34364,10 @@
         <v>40092</v>
       </c>
       <c r="D37" t="n">
-        <v>-1268</v>
+        <v>-1266</v>
       </c>
       <c r="E37" t="n">
-        <v>38824</v>
+        <v>38826</v>
       </c>
     </row>
     <row r="38">
@@ -34385,10 +34385,10 @@
         <v>39409</v>
       </c>
       <c r="D38" t="n">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="E38" t="n">
-        <v>40825</v>
+        <v>40829</v>
       </c>
     </row>
     <row r="39" ht="28.8" customHeight="1">
@@ -34448,10 +34448,10 @@
         <v>36165</v>
       </c>
       <c r="D41" t="n">
-        <v>-3531</v>
+        <v>-3530</v>
       </c>
       <c r="E41" t="n">
-        <v>32634</v>
+        <v>32635</v>
       </c>
     </row>
     <row r="42">
@@ -34469,10 +34469,10 @@
         <v>34465</v>
       </c>
       <c r="D42" t="n">
-        <v>-4953</v>
+        <v>-4954</v>
       </c>
       <c r="E42" t="n">
-        <v>29512</v>
+        <v>29511</v>
       </c>
     </row>
     <row r="43" ht="28.8" customHeight="1">
@@ -34490,10 +34490,10 @@
         <v>34081</v>
       </c>
       <c r="D43" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E43" t="n">
-        <v>34749</v>
+        <v>34750</v>
       </c>
     </row>
     <row r="44">
@@ -34511,10 +34511,10 @@
         <v>33808</v>
       </c>
       <c r="D44" t="n">
-        <v>-4729</v>
+        <v>-4728</v>
       </c>
       <c r="E44" t="n">
-        <v>29079</v>
+        <v>29080</v>
       </c>
     </row>
     <row r="45">
@@ -34616,10 +34616,10 @@
         <v>31457</v>
       </c>
       <c r="D49" t="n">
-        <v>-1545</v>
+        <v>-1543</v>
       </c>
       <c r="E49" t="n">
-        <v>29912</v>
+        <v>29914</v>
       </c>
     </row>
     <row r="50">
@@ -34658,10 +34658,10 @@
         <v>30864</v>
       </c>
       <c r="D51" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E51" t="n">
-        <v>31185</v>
+        <v>31186</v>
       </c>
     </row>
     <row r="52">
@@ -38974,10 +38974,10 @@
         <v>8.710000000000001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-0.01000000000000156</v>
       </c>
       <c r="Q41" t="n">
-        <v>8.710000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -48265,10 +48265,10 @@
         <v>450539</v>
       </c>
       <c r="L2" t="n">
-        <v>48105</v>
+        <v>48125</v>
       </c>
       <c r="M2" t="n">
-        <v>498644</v>
+        <v>498664</v>
       </c>
     </row>
     <row r="3">
@@ -48310,10 +48310,10 @@
         <v>380452</v>
       </c>
       <c r="L3" t="n">
-        <v>29886</v>
+        <v>29901</v>
       </c>
       <c r="M3" t="n">
-        <v>410338</v>
+        <v>410353</v>
       </c>
     </row>
     <row r="4">
@@ -48355,10 +48355,10 @@
         <v>337956</v>
       </c>
       <c r="L4" t="n">
-        <v>12577</v>
+        <v>12588</v>
       </c>
       <c r="M4" t="n">
-        <v>350533</v>
+        <v>350544</v>
       </c>
     </row>
     <row r="5">
@@ -48400,10 +48400,10 @@
         <v>384868</v>
       </c>
       <c r="L5" t="n">
-        <v>42790</v>
+        <v>42809</v>
       </c>
       <c r="M5" t="n">
-        <v>427658</v>
+        <v>427677</v>
       </c>
     </row>
     <row r="6">
@@ -48445,10 +48445,10 @@
         <v>341927</v>
       </c>
       <c r="L6" t="n">
-        <v>28524</v>
+        <v>28542</v>
       </c>
       <c r="M6" t="n">
-        <v>370451</v>
+        <v>370469</v>
       </c>
     </row>
     <row r="7">
@@ -48490,10 +48490,10 @@
         <v>304166</v>
       </c>
       <c r="L7" t="n">
-        <v>25293</v>
+        <v>25311</v>
       </c>
       <c r="M7" t="n">
-        <v>329459</v>
+        <v>329477</v>
       </c>
     </row>
     <row r="8">
@@ -48535,10 +48535,10 @@
         <v>297432</v>
       </c>
       <c r="L8" t="n">
-        <v>18348</v>
+        <v>18364</v>
       </c>
       <c r="M8" t="n">
-        <v>315780</v>
+        <v>315796</v>
       </c>
     </row>
     <row r="9">
@@ -48580,10 +48580,10 @@
         <v>277021</v>
       </c>
       <c r="L9" t="n">
-        <v>11831</v>
+        <v>11842</v>
       </c>
       <c r="M9" t="n">
-        <v>288852</v>
+        <v>288863</v>
       </c>
     </row>
     <row r="10">
@@ -48625,10 +48625,10 @@
         <v>301800</v>
       </c>
       <c r="L10" t="n">
-        <v>30683</v>
+        <v>30700</v>
       </c>
       <c r="M10" t="n">
-        <v>332483</v>
+        <v>332500</v>
       </c>
     </row>
     <row r="11">
@@ -48670,10 +48670,10 @@
         <v>236707</v>
       </c>
       <c r="L11" t="n">
-        <v>5720</v>
+        <v>5723</v>
       </c>
       <c r="M11" t="n">
-        <v>242427</v>
+        <v>242430</v>
       </c>
     </row>
     <row r="12">
@@ -48715,10 +48715,10 @@
         <v>225793</v>
       </c>
       <c r="L12" t="n">
-        <v>11089</v>
+        <v>11096</v>
       </c>
       <c r="M12" t="n">
-        <v>236882</v>
+        <v>236889</v>
       </c>
     </row>
     <row r="13">
@@ -48760,10 +48760,10 @@
         <v>248346</v>
       </c>
       <c r="L13" t="n">
-        <v>27809</v>
+        <v>27816</v>
       </c>
       <c r="M13" t="n">
-        <v>276155</v>
+        <v>276162</v>
       </c>
     </row>
     <row r="14">
@@ -48805,10 +48805,10 @@
         <v>208489</v>
       </c>
       <c r="L14" t="n">
-        <v>10785</v>
+        <v>10792</v>
       </c>
       <c r="M14" t="n">
-        <v>219274</v>
+        <v>219281</v>
       </c>
     </row>
     <row r="15">
@@ -48850,10 +48850,10 @@
         <v>240290</v>
       </c>
       <c r="L15" t="n">
-        <v>19563</v>
+        <v>19573</v>
       </c>
       <c r="M15" t="n">
-        <v>259853</v>
+        <v>259863</v>
       </c>
     </row>
     <row r="16">
@@ -48895,10 +48895,10 @@
         <v>195713</v>
       </c>
       <c r="L16" t="n">
-        <v>14730</v>
+        <v>14742</v>
       </c>
       <c r="M16" t="n">
-        <v>210443</v>
+        <v>210455</v>
       </c>
     </row>
     <row r="17">
@@ -48940,10 +48940,10 @@
         <v>182779</v>
       </c>
       <c r="L17" t="n">
-        <v>13166</v>
+        <v>13172</v>
       </c>
       <c r="M17" t="n">
-        <v>195945</v>
+        <v>195951</v>
       </c>
     </row>
     <row r="18">
@@ -48985,10 +48985,10 @@
         <v>213218</v>
       </c>
       <c r="L18" t="n">
-        <v>21242</v>
+        <v>21248</v>
       </c>
       <c r="M18" t="n">
-        <v>234460</v>
+        <v>234466</v>
       </c>
     </row>
     <row r="19">
@@ -49030,10 +49030,10 @@
         <v>165782</v>
       </c>
       <c r="L19" t="n">
-        <v>6352</v>
+        <v>6354</v>
       </c>
       <c r="M19" t="n">
-        <v>172134</v>
+        <v>172136</v>
       </c>
     </row>
     <row r="20">
@@ -49075,10 +49075,10 @@
         <v>156042</v>
       </c>
       <c r="L20" t="n">
-        <v>4376</v>
+        <v>4384</v>
       </c>
       <c r="M20" t="n">
-        <v>160418</v>
+        <v>160426</v>
       </c>
     </row>
     <row r="21">
@@ -49120,10 +49120,10 @@
         <v>162215</v>
       </c>
       <c r="L21" t="n">
-        <v>8774</v>
+        <v>8776</v>
       </c>
       <c r="M21" t="n">
-        <v>170989</v>
+        <v>170991</v>
       </c>
     </row>
     <row r="22">
@@ -49165,10 +49165,10 @@
         <v>159857</v>
       </c>
       <c r="L22" t="n">
-        <v>7783</v>
+        <v>7789</v>
       </c>
       <c r="M22" t="n">
-        <v>167640</v>
+        <v>167646</v>
       </c>
     </row>
     <row r="23">
@@ -49210,10 +49210,10 @@
         <v>187278</v>
       </c>
       <c r="L23" t="n">
-        <v>23931</v>
+        <v>23941</v>
       </c>
       <c r="M23" t="n">
-        <v>211209</v>
+        <v>211219</v>
       </c>
     </row>
     <row r="24">
@@ -49255,10 +49255,10 @@
         <v>201921</v>
       </c>
       <c r="L24" t="n">
-        <v>43394</v>
+        <v>43411</v>
       </c>
       <c r="M24" t="n">
-        <v>245315</v>
+        <v>245332</v>
       </c>
     </row>
     <row r="25">
@@ -49300,10 +49300,10 @@
         <v>148222</v>
       </c>
       <c r="L25" t="n">
-        <v>6952</v>
+        <v>6956</v>
       </c>
       <c r="M25" t="n">
-        <v>155174</v>
+        <v>155178</v>
       </c>
     </row>
     <row r="26">
@@ -49345,10 +49345,10 @@
         <v>141447</v>
       </c>
       <c r="L26" t="n">
-        <v>6485</v>
+        <v>6487</v>
       </c>
       <c r="M26" t="n">
-        <v>147932</v>
+        <v>147934</v>
       </c>
     </row>
     <row r="27">
@@ -49390,10 +49390,10 @@
         <v>139201</v>
       </c>
       <c r="L27" t="n">
-        <v>6014</v>
+        <v>6018</v>
       </c>
       <c r="M27" t="n">
-        <v>145215</v>
+        <v>145219</v>
       </c>
     </row>
     <row r="28">
@@ -49435,10 +49435,10 @@
         <v>142048</v>
       </c>
       <c r="L28" t="n">
-        <v>6355</v>
+        <v>6358</v>
       </c>
       <c r="M28" t="n">
-        <v>148403</v>
+        <v>148406</v>
       </c>
     </row>
     <row r="29">
@@ -49480,10 +49480,10 @@
         <v>161498</v>
       </c>
       <c r="L29" t="n">
-        <v>19616</v>
+        <v>19625</v>
       </c>
       <c r="M29" t="n">
-        <v>181114</v>
+        <v>181123</v>
       </c>
     </row>
     <row r="30">
@@ -49525,10 +49525,10 @@
         <v>137303</v>
       </c>
       <c r="L30" t="n">
-        <v>8226</v>
+        <v>8231</v>
       </c>
       <c r="M30" t="n">
-        <v>145529</v>
+        <v>145534</v>
       </c>
     </row>
     <row r="31">
@@ -49570,10 +49570,10 @@
         <v>130378</v>
       </c>
       <c r="L31" t="n">
-        <v>5842</v>
+        <v>5844</v>
       </c>
       <c r="M31" t="n">
-        <v>136220</v>
+        <v>136222</v>
       </c>
     </row>
     <row r="32">
@@ -49615,10 +49615,10 @@
         <v>133068</v>
       </c>
       <c r="L32" t="n">
-        <v>7808</v>
+        <v>7816</v>
       </c>
       <c r="M32" t="n">
-        <v>140876</v>
+        <v>140884</v>
       </c>
     </row>
     <row r="33">
@@ -49660,10 +49660,10 @@
         <v>127496</v>
       </c>
       <c r="L33" t="n">
-        <v>4978</v>
+        <v>4981</v>
       </c>
       <c r="M33" t="n">
-        <v>132474</v>
+        <v>132477</v>
       </c>
     </row>
     <row r="34">
@@ -49705,10 +49705,10 @@
         <v>127209</v>
       </c>
       <c r="L34" t="n">
-        <v>4947</v>
+        <v>4949</v>
       </c>
       <c r="M34" t="n">
-        <v>132156</v>
+        <v>132158</v>
       </c>
     </row>
     <row r="35">
@@ -49795,10 +49795,10 @@
         <v>127352</v>
       </c>
       <c r="L36" t="n">
-        <v>6721</v>
+        <v>6725</v>
       </c>
       <c r="M36" t="n">
-        <v>134073</v>
+        <v>134077</v>
       </c>
     </row>
     <row r="37">
@@ -49840,10 +49840,10 @@
         <v>133807</v>
       </c>
       <c r="L37" t="n">
-        <v>9836</v>
+        <v>9843</v>
       </c>
       <c r="M37" t="n">
-        <v>143643</v>
+        <v>143650</v>
       </c>
     </row>
     <row r="38" ht="28.8" customHeight="1">
@@ -49885,10 +49885,10 @@
         <v>154775</v>
       </c>
       <c r="L38" t="n">
-        <v>19826</v>
+        <v>19835</v>
       </c>
       <c r="M38" t="n">
-        <v>174601</v>
+        <v>174610</v>
       </c>
     </row>
     <row r="39">
@@ -49930,10 +49930,10 @@
         <v>203853</v>
       </c>
       <c r="L39" t="n">
-        <v>50844</v>
+        <v>50870</v>
       </c>
       <c r="M39" t="n">
-        <v>254697</v>
+        <v>254723</v>
       </c>
     </row>
     <row r="40">
@@ -49975,10 +49975,10 @@
         <v>134344</v>
       </c>
       <c r="L40" t="n">
-        <v>12056</v>
+        <v>12061</v>
       </c>
       <c r="M40" t="n">
-        <v>146400</v>
+        <v>146405</v>
       </c>
     </row>
     <row r="41">
@@ -50020,10 +50020,10 @@
         <v>134582</v>
       </c>
       <c r="L41" t="n">
-        <v>14097</v>
+        <v>14104</v>
       </c>
       <c r="M41" t="n">
-        <v>148679</v>
+        <v>148686</v>
       </c>
     </row>
     <row r="42">
@@ -50065,10 +50065,10 @@
         <v>122218</v>
       </c>
       <c r="L42" t="n">
-        <v>7147</v>
+        <v>7153</v>
       </c>
       <c r="M42" t="n">
-        <v>129365</v>
+        <v>129371</v>
       </c>
     </row>
     <row r="43" ht="28.8" customHeight="1">
@@ -50110,10 +50110,10 @@
         <v>144062</v>
       </c>
       <c r="L43" t="n">
-        <v>16575</v>
+        <v>16582</v>
       </c>
       <c r="M43" t="n">
-        <v>160637</v>
+        <v>160644</v>
       </c>
     </row>
     <row r="44">
@@ -50190,10 +50190,10 @@
         <v>130904</v>
       </c>
       <c r="L45" t="n">
-        <v>16106</v>
+        <v>16113</v>
       </c>
       <c r="M45" t="n">
-        <v>147010</v>
+        <v>147017</v>
       </c>
     </row>
     <row r="46">
@@ -50270,10 +50270,10 @@
         <v>139067</v>
       </c>
       <c r="L47" t="n">
-        <v>22525</v>
+        <v>22533</v>
       </c>
       <c r="M47" t="n">
-        <v>161592</v>
+        <v>161600</v>
       </c>
     </row>
     <row r="48">
@@ -50424,10 +50424,10 @@
         <v>134397</v>
       </c>
       <c r="L51" t="n">
-        <v>15228</v>
+        <v>15238</v>
       </c>
       <c r="M51" t="n">
-        <v>149625</v>
+        <v>149635</v>
       </c>
     </row>
     <row r="52">
@@ -50453,10 +50453,10 @@
         <v>167772</v>
       </c>
       <c r="L52" t="n">
-        <v>90882</v>
+        <v>90933</v>
       </c>
       <c r="M52" t="n">
-        <v>258654</v>
+        <v>258705</v>
       </c>
     </row>
     <row r="53" ht="28.8" customHeight="1">
@@ -50482,10 +50482,10 @@
         <v>131436</v>
       </c>
       <c r="L53" t="n">
-        <v>13785</v>
+        <v>13790</v>
       </c>
       <c r="M53" t="n">
-        <v>145221</v>
+        <v>145226</v>
       </c>
     </row>
     <row r="54">
@@ -50511,10 +50511,10 @@
         <v>126871</v>
       </c>
       <c r="L54" t="n">
-        <v>58784</v>
+        <v>58819</v>
       </c>
       <c r="M54" t="n">
-        <v>185655</v>
+        <v>185690</v>
       </c>
     </row>
     <row r="55">
@@ -50540,10 +50540,10 @@
         <v>121594</v>
       </c>
       <c r="L55" t="n">
-        <v>15779</v>
+        <v>15788</v>
       </c>
       <c r="M55" t="n">
-        <v>137373</v>
+        <v>137382</v>
       </c>
     </row>
     <row r="56">
@@ -50567,7 +50567,7 @@
       <c r="J56" s="35" t="n"/>
       <c r="K56" s="11" t="n"/>
       <c r="M56" t="n">
-        <v>137787</v>
+        <v>137797</v>
       </c>
     </row>
     <row r="57">

--- a/Excel/2021.08.07.xlsx
+++ b/Excel/2021.08.07.xlsx
@@ -11769,10 +11769,10 @@
         <v>94641</v>
       </c>
       <c r="D2" t="n">
-        <v>-12361</v>
+        <v>-12360</v>
       </c>
       <c r="E2" t="n">
-        <v>82280</v>
+        <v>82281</v>
       </c>
     </row>
     <row r="3">
@@ -11790,10 +11790,10 @@
         <v>77266</v>
       </c>
       <c r="D3" t="n">
-        <v>2986</v>
+        <v>2992</v>
       </c>
       <c r="E3" t="n">
-        <v>80252</v>
+        <v>80258</v>
       </c>
     </row>
     <row r="4">
@@ -11811,10 +11811,10 @@
         <v>63869</v>
       </c>
       <c r="D4" t="n">
-        <v>-3371</v>
+        <v>-3369</v>
       </c>
       <c r="E4" t="n">
-        <v>60498</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="5">
@@ -11937,10 +11937,10 @@
         <v>28487</v>
       </c>
       <c r="D10" t="n">
-        <v>-1740</v>
+        <v>-1739</v>
       </c>
       <c r="E10" t="n">
-        <v>26747</v>
+        <v>26748</v>
       </c>
     </row>
     <row r="11">
@@ -11958,10 +11958,10 @@
         <v>27509</v>
       </c>
       <c r="D11" t="n">
-        <v>-448</v>
+        <v>-446</v>
       </c>
       <c r="E11" t="n">
-        <v>27061</v>
+        <v>27063</v>
       </c>
     </row>
     <row r="12" ht="28.8" customHeight="1">
@@ -11979,10 +11979,10 @@
         <v>26507</v>
       </c>
       <c r="D12" t="n">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="E12" t="n">
-        <v>27434</v>
+        <v>27437</v>
       </c>
     </row>
     <row r="13">
@@ -12000,10 +12000,10 @@
         <v>26205</v>
       </c>
       <c r="D13" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E13" t="n">
-        <v>26200</v>
+        <v>26201</v>
       </c>
     </row>
     <row r="14">
@@ -12042,10 +12042,10 @@
         <v>22439</v>
       </c>
       <c r="D15" t="n">
-        <v>2924</v>
+        <v>2928</v>
       </c>
       <c r="E15" t="n">
-        <v>25363</v>
+        <v>25367</v>
       </c>
     </row>
     <row r="16">
@@ -12084,10 +12084,10 @@
         <v>21119</v>
       </c>
       <c r="D17" t="n">
-        <v>12217</v>
+        <v>12222</v>
       </c>
       <c r="E17" t="n">
-        <v>33336</v>
+        <v>33341</v>
       </c>
     </row>
     <row r="18">
@@ -12126,10 +12126,10 @@
         <v>20094</v>
       </c>
       <c r="D19" t="n">
-        <v>-505</v>
+        <v>-503</v>
       </c>
       <c r="E19" t="n">
-        <v>19589</v>
+        <v>19591</v>
       </c>
     </row>
     <row r="20">
@@ -12147,10 +12147,10 @@
         <v>18983</v>
       </c>
       <c r="D20" t="n">
-        <v>-783</v>
+        <v>-780</v>
       </c>
       <c r="E20" t="n">
-        <v>18200</v>
+        <v>18203</v>
       </c>
     </row>
     <row r="21" ht="28.8" customHeight="1">
@@ -12168,10 +12168,10 @@
         <v>18457</v>
       </c>
       <c r="D21" t="n">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E21" t="n">
-        <v>19751</v>
+        <v>19752</v>
       </c>
     </row>
     <row r="22">
@@ -12189,10 +12189,10 @@
         <v>17796</v>
       </c>
       <c r="D22" t="n">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E22" t="n">
-        <v>18913</v>
+        <v>18912</v>
       </c>
     </row>
     <row r="23">
@@ -12210,10 +12210,10 @@
         <v>17662</v>
       </c>
       <c r="D23" t="n">
-        <v>-346</v>
+        <v>-344</v>
       </c>
       <c r="E23" t="n">
-        <v>17316</v>
+        <v>17318</v>
       </c>
     </row>
     <row r="24">
@@ -12231,10 +12231,10 @@
         <v>17108</v>
       </c>
       <c r="D24" t="n">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E24" t="n">
-        <v>19007</v>
+        <v>19008</v>
       </c>
     </row>
     <row r="25">
@@ -12252,10 +12252,10 @@
         <v>16570</v>
       </c>
       <c r="D25" t="n">
-        <v>-376</v>
+        <v>-374</v>
       </c>
       <c r="E25" t="n">
-        <v>16194</v>
+        <v>16196</v>
       </c>
     </row>
     <row r="26">
@@ -12273,10 +12273,10 @@
         <v>16472</v>
       </c>
       <c r="D26" t="n">
-        <v>-1683</v>
+        <v>-1684</v>
       </c>
       <c r="E26" t="n">
-        <v>14789</v>
+        <v>14788</v>
       </c>
     </row>
     <row r="27">
@@ -12378,10 +12378,10 @@
         <v>13322</v>
       </c>
       <c r="D31" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E31" t="n">
-        <v>13757</v>
+        <v>13760</v>
       </c>
     </row>
     <row r="32">
@@ -12441,10 +12441,10 @@
         <v>12796</v>
       </c>
       <c r="D34" t="n">
-        <v>-108</v>
+        <v>-107</v>
       </c>
       <c r="E34" t="n">
-        <v>12688</v>
+        <v>12689</v>
       </c>
     </row>
     <row r="35">
@@ -12525,10 +12525,10 @@
         <v>11182</v>
       </c>
       <c r="D38" t="n">
-        <v>-451</v>
+        <v>-449</v>
       </c>
       <c r="E38" t="n">
-        <v>10731</v>
+        <v>10733</v>
       </c>
     </row>
     <row r="39">
@@ -12672,10 +12672,10 @@
         <v>10462</v>
       </c>
       <c r="D45" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E45" t="n">
-        <v>10645</v>
+        <v>10647</v>
       </c>
     </row>
     <row r="46">
@@ -12693,10 +12693,10 @@
         <v>10446</v>
       </c>
       <c r="D46" t="n">
-        <v>-161</v>
+        <v>-162</v>
       </c>
       <c r="E46" t="n">
-        <v>10285</v>
+        <v>10284</v>
       </c>
     </row>
     <row r="47">
@@ -12799,7 +12799,7 @@
       </c>
       <c r="C52" s="11" t="n"/>
       <c r="E52" t="n">
-        <v>13127</v>
+        <v>13128</v>
       </c>
     </row>
     <row r="53">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="C54" s="11" t="n"/>
       <c r="E54" t="n">
-        <v>9361</v>
+        <v>9363</v>
       </c>
     </row>
     <row r="55">

--- a/Excel/2021.08.07.xlsx
+++ b/Excel/2021.08.07.xlsx
@@ -20,18 +20,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MFO" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ARV'!$A$1:$S$113</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ARO'!$A$1:$S$113</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AMV'!$A$1:$S$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'AMO'!$A$1:$S$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'AFV'!$A$1:$E$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'AFO'!$A$1:$E$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'MRV'!$A$1:$Q$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'MRO'!$A$1:$Q$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'MMV'!$A$1:$M$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'MMO'!$A$1:$M$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'MFV'!$A$1:$E$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'MFO'!$A$1:$E$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ARV'!$A$1:$U$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ARO'!$A$1:$U$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AMV'!$A$1:$U$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'AMO'!$A$1:$U$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'AFV'!$A$1:$G$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'AFO'!$A$1:$G$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'MRV'!$A$1:$S$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'MRO'!$A$1:$S$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'MMV'!$A$1:$O$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'MMO'!$A$1:$O$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'MFV'!$A$1:$G$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'MFO'!$A$1:$G$100</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -600,7 +600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S113"/>
+  <dimension ref="A1:U113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -708,6 +708,14 @@
       <c r="S1" s="31" t="n">
         <v>44415</v>
       </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="U1" s="31" t="n">
+        <v>44415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
@@ -773,6 +781,12 @@
       <c r="S2" t="n">
         <v>9.16</v>
       </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>9.16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -837,6 +851,12 @@
       <c r="S3" t="n">
         <v>9.1</v>
       </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -901,6 +921,12 @@
       <c r="S4" t="n">
         <v>9.07</v>
       </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9.07</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -965,6 +991,12 @@
       <c r="S5" t="n">
         <v>9.09</v>
       </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>9.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -1029,6 +1061,12 @@
       <c r="S6" t="n">
         <v>9.06</v>
       </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -1093,6 +1131,12 @@
       <c r="S7" t="n">
         <v>9.06</v>
       </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9.06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -1157,6 +1201,12 @@
       <c r="S8" t="n">
         <v>9.1</v>
       </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
@@ -1221,6 +1271,12 @@
       <c r="S9" t="n">
         <v>9.039999999999999</v>
       </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>9.039999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
@@ -1285,6 +1341,12 @@
       <c r="S10" t="n">
         <v>8.98</v>
       </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -1349,6 +1411,12 @@
       <c r="S11" t="n">
         <v>8.91</v>
       </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>8.91</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="inlineStr">
@@ -1413,6 +1481,12 @@
       <c r="S12" t="n">
         <v>8.970000000000001</v>
       </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>8.970000000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="inlineStr">
@@ -1477,6 +1551,12 @@
       <c r="S13" t="n">
         <v>8.98</v>
       </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="inlineStr">
@@ -1541,6 +1621,12 @@
       <c r="S14" t="n">
         <v>8.949999999999999</v>
       </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>8.949999999999999</v>
+      </c>
     </row>
     <row r="15" ht="28.8" customHeight="1">
       <c r="A15" s="23" t="inlineStr">
@@ -1605,6 +1691,12 @@
       <c r="S15" t="n">
         <v>8.94</v>
       </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>8.94</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="23" t="inlineStr">
@@ -1669,6 +1761,12 @@
       <c r="S16" t="n">
         <v>8.949999999999999</v>
       </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>8.949999999999999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -1733,6 +1831,12 @@
       <c r="S17" t="n">
         <v>8.91</v>
       </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>8.91</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -1797,6 +1901,12 @@
       <c r="S18" t="n">
         <v>8.91</v>
       </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>8.91</v>
+      </c>
     </row>
     <row r="19" ht="28.8" customHeight="1">
       <c r="A19" s="23" t="inlineStr">
@@ -1861,6 +1971,12 @@
       <c r="S19" t="n">
         <v>8.82</v>
       </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>8.82</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="inlineStr">
@@ -1925,6 +2041,12 @@
       <c r="S20" t="n">
         <v>8.82</v>
       </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>8.82</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="23" t="inlineStr">
@@ -1989,6 +2111,12 @@
       <c r="S21" t="n">
         <v>8.800000000000001</v>
       </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>8.800000000000001</v>
+      </c>
     </row>
     <row r="22" ht="28.8" customHeight="1">
       <c r="A22" s="23" t="inlineStr">
@@ -2053,6 +2181,12 @@
       <c r="S22" t="n">
         <v>8.880000000000001</v>
       </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>8.880000000000001</v>
+      </c>
     </row>
     <row r="23" ht="28.8" customHeight="1">
       <c r="A23" s="23" t="inlineStr">
@@ -2175,6 +2309,12 @@
       <c r="S24" t="n">
         <v>8.81</v>
       </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>8.81</v>
+      </c>
     </row>
     <row r="25" ht="28.8" customHeight="1">
       <c r="A25" s="23" t="inlineStr">
@@ -2239,6 +2379,12 @@
       <c r="S25" t="n">
         <v>8.77</v>
       </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>8.77</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="inlineStr">
@@ -2303,6 +2449,12 @@
       <c r="S26" t="n">
         <v>8.82</v>
       </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>8.82</v>
+      </c>
     </row>
     <row r="27" ht="28.8" customHeight="1">
       <c r="A27" s="23" t="inlineStr">
@@ -2367,6 +2519,12 @@
       <c r="S27" t="n">
         <v>8.77</v>
       </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>8.77</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="inlineStr">
@@ -2431,6 +2589,12 @@
       <c r="S28" t="n">
         <v>8.77</v>
       </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>8.77</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="23" t="inlineStr">
@@ -2495,6 +2659,12 @@
       <c r="S29" t="n">
         <v>8.68</v>
       </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>8.68</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="inlineStr">
@@ -2559,6 +2729,12 @@
       <c r="S30" t="n">
         <v>8.779999999999999</v>
       </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>8.779999999999999</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="inlineStr">
@@ -2623,6 +2799,12 @@
       <c r="S31" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>8.699999999999999</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="23" t="inlineStr">
@@ -2687,6 +2869,12 @@
       <c r="S32" t="n">
         <v>8.710000000000001</v>
       </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>8.710000000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="23" t="inlineStr">
@@ -2751,6 +2939,12 @@
       <c r="S33" t="n">
         <v>8.75</v>
       </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>8.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="inlineStr">
@@ -2815,6 +3009,12 @@
       <c r="S34" t="n">
         <v>8.74</v>
       </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>8.74</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="23" t="inlineStr">
@@ -2879,6 +3079,12 @@
       <c r="S35" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>8.699999999999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="23" t="inlineStr">
@@ -2943,6 +3149,12 @@
       <c r="S36" t="n">
         <v>8.789999999999999</v>
       </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>8.789999999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="inlineStr">
@@ -3007,6 +3219,12 @@
       <c r="S37" t="n">
         <v>8.710000000000001</v>
       </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>8.710000000000001</v>
+      </c>
     </row>
     <row r="38" ht="28.8" customHeight="1">
       <c r="A38" s="23" t="inlineStr">
@@ -3071,6 +3289,12 @@
       <c r="S38" t="n">
         <v>8.720000000000001</v>
       </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>8.720000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="23" t="inlineStr">
@@ -3135,6 +3359,12 @@
       <c r="S39" t="n">
         <v>8.710000000000001</v>
       </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>8.710000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="inlineStr">
@@ -3199,6 +3429,12 @@
       <c r="S40" t="n">
         <v>8.720000000000001</v>
       </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>8.720000000000001</v>
+      </c>
     </row>
     <row r="41" ht="28.8" customHeight="1">
       <c r="A41" s="23" t="inlineStr">
@@ -3263,6 +3499,12 @@
       <c r="S41" t="n">
         <v>8.710000000000001</v>
       </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>8.710000000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="inlineStr">
@@ -3327,6 +3569,12 @@
       <c r="S42" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>8.699999999999999</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="23" t="inlineStr">
@@ -3389,6 +3637,12 @@
         <v>-0.009999999999999787</v>
       </c>
       <c r="S43" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>8.68</v>
       </c>
     </row>
@@ -3858,6 +4112,12 @@
       <c r="S54" t="n">
         <v>8.68</v>
       </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>8.68</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="23" t="inlineStr">
@@ -3905,6 +4165,12 @@
       <c r="S55" t="n">
         <v>8.949999999999999</v>
       </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>8.949999999999999</v>
+      </c>
     </row>
     <row r="56" ht="28.8" customHeight="1">
       <c r="A56" s="23" t="inlineStr">
@@ -3950,6 +4216,12 @@
         <v>0.02999999999999936</v>
       </c>
       <c r="S56" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
         <v>8.74</v>
       </c>
     </row>
@@ -3995,6 +4267,12 @@
       <c r="S57" t="n">
         <v>9.1</v>
       </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="58" ht="28.8" customHeight="1">
       <c r="A58" s="23" t="inlineStr">
@@ -4059,6 +4337,12 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="S59" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
         <v>8.869999999999999</v>
       </c>
     </row>
@@ -4096,6 +4380,12 @@
       <c r="S60" t="n">
         <v>8.75</v>
       </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>8.75</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="23" t="inlineStr">
@@ -4129,6 +4419,12 @@
         <v>0.3200000000000003</v>
       </c>
       <c r="S61" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
         <v>9.09</v>
       </c>
     </row>
@@ -4190,6 +4486,12 @@
       <c r="S63" t="n">
         <v>8.880000000000001</v>
       </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>8.880000000000001</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="23" t="inlineStr">
@@ -4218,6 +4520,12 @@
       <c r="P64" s="32" t="n"/>
       <c r="Q64" s="28" t="n"/>
       <c r="S64" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
         <v>8.81</v>
       </c>
     </row>
@@ -4909,7 +5217,7 @@
       <c r="E113" s="28" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S113">
+  <autoFilter ref="A1:U113">
     <sortState ref="A2:Q62">
       <sortCondition ref="A1:A62"/>
     </sortState>
@@ -8188,7 +8496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -8266,6 +8574,14 @@
       <c r="M1" s="31" t="n">
         <v>44415</v>
       </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="O1" s="31" t="n">
+        <v>44415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
@@ -8315,6 +8631,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M2)+1</f>
         <v/>
       </c>
+      <c r="N2">
+        <f>M2 - O2</f>
+        <v/>
+      </c>
+      <c r="O2">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O2)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -8362,6 +8686,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M3)+1</f>
         <v/>
       </c>
+      <c r="N3">
+        <f>M3 - O3</f>
+        <v/>
+      </c>
+      <c r="O3">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O3)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -8409,6 +8741,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M4)+1</f>
         <v/>
       </c>
+      <c r="N4">
+        <f>M4 - O4</f>
+        <v/>
+      </c>
+      <c r="O4">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O4)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -8456,6 +8796,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M5)+1</f>
         <v/>
       </c>
+      <c r="N5">
+        <f>M5 - O5</f>
+        <v/>
+      </c>
+      <c r="O5">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O5)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -8503,6 +8851,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M6)+1</f>
         <v/>
       </c>
+      <c r="N6">
+        <f>M6 - O6</f>
+        <v/>
+      </c>
+      <c r="O6">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O6)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -8550,6 +8906,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M7)+1</f>
         <v/>
       </c>
+      <c r="N7">
+        <f>M7 - O7</f>
+        <v/>
+      </c>
+      <c r="O7">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O7)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -8597,6 +8961,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M8)+1</f>
         <v/>
       </c>
+      <c r="N8">
+        <f>M8 - O8</f>
+        <v/>
+      </c>
+      <c r="O8">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O8)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
@@ -8644,6 +9016,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M9)+1</f>
         <v/>
       </c>
+      <c r="N9">
+        <f>M9 - O9</f>
+        <v/>
+      </c>
+      <c r="O9">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O9)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
@@ -8691,6 +9071,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M10)+1</f>
         <v/>
       </c>
+      <c r="N10">
+        <f>M10 - O10</f>
+        <v/>
+      </c>
+      <c r="O10">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O10)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -8738,6 +9126,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M11)+1</f>
         <v/>
       </c>
+      <c r="N11">
+        <f>M11 - O11</f>
+        <v/>
+      </c>
+      <c r="O11">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O11)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="inlineStr">
@@ -8785,6 +9181,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M12)+1</f>
         <v/>
       </c>
+      <c r="N12">
+        <f>M12 - O12</f>
+        <v/>
+      </c>
+      <c r="O12">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O12)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="inlineStr">
@@ -8832,6 +9236,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M13)+1</f>
         <v/>
       </c>
+      <c r="N13">
+        <f>M13 - O13</f>
+        <v/>
+      </c>
+      <c r="O13">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O13)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="inlineStr">
@@ -8879,6 +9291,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M14)+1</f>
         <v/>
       </c>
+      <c r="N14">
+        <f>M14 - O14</f>
+        <v/>
+      </c>
+      <c r="O14">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O14)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="23" t="inlineStr">
@@ -8926,6 +9346,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M15)+1</f>
         <v/>
       </c>
+      <c r="N15">
+        <f>M15 - O15</f>
+        <v/>
+      </c>
+      <c r="O15">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O15)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="23" t="inlineStr">
@@ -8973,6 +9401,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M16)+1</f>
         <v/>
       </c>
+      <c r="N16">
+        <f>M16 - O16</f>
+        <v/>
+      </c>
+      <c r="O16">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O16)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -9020,6 +9456,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M17)+1</f>
         <v/>
       </c>
+      <c r="N17">
+        <f>M17 - O17</f>
+        <v/>
+      </c>
+      <c r="O17">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O17)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -9067,6 +9511,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M18)+1</f>
         <v/>
       </c>
+      <c r="N18">
+        <f>M18 - O18</f>
+        <v/>
+      </c>
+      <c r="O18">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O18)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -9114,6 +9566,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M19)+1</f>
         <v/>
       </c>
+      <c r="N19">
+        <f>M19 - O19</f>
+        <v/>
+      </c>
+      <c r="O19">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O19)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="inlineStr">
@@ -9161,6 +9621,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M20)+1</f>
         <v/>
       </c>
+      <c r="N20">
+        <f>M20 - O20</f>
+        <v/>
+      </c>
+      <c r="O20">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O20)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="23" t="inlineStr">
@@ -9208,6 +9676,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M21)+1</f>
         <v/>
       </c>
+      <c r="N21">
+        <f>M21 - O21</f>
+        <v/>
+      </c>
+      <c r="O21">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O21)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="23" t="inlineStr">
@@ -9255,6 +9731,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M22)+1</f>
         <v/>
       </c>
+      <c r="N22">
+        <f>M22 - O22</f>
+        <v/>
+      </c>
+      <c r="O22">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O22)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="23" t="inlineStr">
@@ -9302,6 +9786,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M23)+1</f>
         <v/>
       </c>
+      <c r="N23">
+        <f>M23 - O23</f>
+        <v/>
+      </c>
+      <c r="O23">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O23)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="23" t="inlineStr">
@@ -9349,6 +9841,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M24)+1</f>
         <v/>
       </c>
+      <c r="N24">
+        <f>M24 - O24</f>
+        <v/>
+      </c>
+      <c r="O24">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O24)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="23" t="inlineStr">
@@ -9396,6 +9896,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M25)+1</f>
         <v/>
       </c>
+      <c r="N25">
+        <f>M25 - O25</f>
+        <v/>
+      </c>
+      <c r="O25">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O25)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="inlineStr">
@@ -9443,6 +9951,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M26)+1</f>
         <v/>
       </c>
+      <c r="N26">
+        <f>M26 - O26</f>
+        <v/>
+      </c>
+      <c r="O26">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O26)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="23" t="inlineStr">
@@ -9490,6 +10006,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M27)+1</f>
         <v/>
       </c>
+      <c r="N27">
+        <f>M27 - O27</f>
+        <v/>
+      </c>
+      <c r="O27">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O27)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="inlineStr">
@@ -9537,6 +10061,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M28)+1</f>
         <v/>
       </c>
+      <c r="N28">
+        <f>M28 - O28</f>
+        <v/>
+      </c>
+      <c r="O28">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O28)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="23" t="inlineStr">
@@ -9584,6 +10116,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M29)+1</f>
         <v/>
       </c>
+      <c r="N29">
+        <f>M29 - O29</f>
+        <v/>
+      </c>
+      <c r="O29">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O29)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="inlineStr">
@@ -9631,6 +10171,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M30)+1</f>
         <v/>
       </c>
+      <c r="N30">
+        <f>M30 - O30</f>
+        <v/>
+      </c>
+      <c r="O30">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O30)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="inlineStr">
@@ -9678,6 +10226,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M31)+1</f>
         <v/>
       </c>
+      <c r="N31">
+        <f>M31 - O31</f>
+        <v/>
+      </c>
+      <c r="O31">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O31)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="23" t="inlineStr">
@@ -9725,6 +10281,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M32)+1</f>
         <v/>
       </c>
+      <c r="N32">
+        <f>M32 - O32</f>
+        <v/>
+      </c>
+      <c r="O32">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O32)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="23" t="inlineStr">
@@ -9772,6 +10336,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M33)+1</f>
         <v/>
       </c>
+      <c r="N33">
+        <f>M33 - O33</f>
+        <v/>
+      </c>
+      <c r="O33">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O33)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="inlineStr">
@@ -9819,6 +10391,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M34)+1</f>
         <v/>
       </c>
+      <c r="N34">
+        <f>M34 - O34</f>
+        <v/>
+      </c>
+      <c r="O34">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O34)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="23" t="inlineStr">
@@ -9866,6 +10446,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M35)+1</f>
         <v/>
       </c>
+      <c r="N35">
+        <f>M35 - O35</f>
+        <v/>
+      </c>
+      <c r="O35">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O35)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="23" t="inlineStr">
@@ -9913,6 +10501,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M36)+1</f>
         <v/>
       </c>
+      <c r="N36">
+        <f>M36 - O36</f>
+        <v/>
+      </c>
+      <c r="O36">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O36)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="inlineStr">
@@ -9960,6 +10556,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M37)+1</f>
         <v/>
       </c>
+      <c r="N37">
+        <f>M37 - O37</f>
+        <v/>
+      </c>
+      <c r="O37">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O37)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="38" ht="28.8" customHeight="1">
       <c r="A38" s="23" t="inlineStr">
@@ -10007,6 +10611,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M38)+1</f>
         <v/>
       </c>
+      <c r="N38">
+        <f>M38 - O38</f>
+        <v/>
+      </c>
+      <c r="O38">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O38)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="23" t="inlineStr">
@@ -10054,6 +10666,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M39)+1</f>
         <v/>
       </c>
+      <c r="N39">
+        <f>M39 - O39</f>
+        <v/>
+      </c>
+      <c r="O39">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O39)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="inlineStr">
@@ -10101,6 +10721,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M40)+1</f>
         <v/>
       </c>
+      <c r="N40">
+        <f>M40 - O40</f>
+        <v/>
+      </c>
+      <c r="O40">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O40)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="23" t="inlineStr">
@@ -10148,6 +10776,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M41)+1</f>
         <v/>
       </c>
+      <c r="N41">
+        <f>M41 - O41</f>
+        <v/>
+      </c>
+      <c r="O41">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O41)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="inlineStr">
@@ -10195,6 +10831,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M42)+1</f>
         <v/>
       </c>
+      <c r="N42">
+        <f>M42 - O42</f>
+        <v/>
+      </c>
+      <c r="O42">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O42)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="43" ht="28.8" customHeight="1">
       <c r="A43" s="23" t="inlineStr">
@@ -10242,6 +10886,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M43)+1</f>
         <v/>
       </c>
+      <c r="N43">
+        <f>M43 - O43</f>
+        <v/>
+      </c>
+      <c r="O43">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O43)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="23" t="inlineStr">
@@ -10324,6 +10976,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M45)+1</f>
         <v/>
       </c>
+      <c r="N45">
+        <f>M45 - O45</f>
+        <v/>
+      </c>
+      <c r="O45">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O45)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="23" t="inlineStr">
@@ -10406,6 +11066,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M47)+1</f>
         <v/>
       </c>
+      <c r="N47">
+        <f>M47 - O47</f>
+        <v/>
+      </c>
+      <c r="O47">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O47)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="23" t="inlineStr">
@@ -10560,6 +11228,14 @@
       </c>
       <c r="M51">
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M51)+1</f>
+        <v/>
+      </c>
+      <c r="N51">
+        <f>M51 - O51</f>
+        <v/>
+      </c>
+      <c r="O51">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O51)+1</f>
         <v/>
       </c>
     </row>
@@ -10593,6 +11269,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M52)+1</f>
         <v/>
       </c>
+      <c r="N52">
+        <f>M52 - O52</f>
+        <v/>
+      </c>
+      <c r="O52">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O52)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="53" ht="28.8" customHeight="1">
       <c r="A53" s="23" t="inlineStr">
@@ -10624,6 +11308,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M53)+1</f>
         <v/>
       </c>
+      <c r="N53">
+        <f>M53 - O53</f>
+        <v/>
+      </c>
+      <c r="O53">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O53)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="23" t="inlineStr">
@@ -10655,6 +11347,14 @@
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M54)+1</f>
         <v/>
       </c>
+      <c r="N54">
+        <f>M54 - O54</f>
+        <v/>
+      </c>
+      <c r="O54">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O54)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="23" t="inlineStr">
@@ -10684,6 +11384,14 @@
       </c>
       <c r="M55">
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M55)+1</f>
+        <v/>
+      </c>
+      <c r="N55">
+        <f>M55 - O55</f>
+        <v/>
+      </c>
+      <c r="O55">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O55)+1</f>
         <v/>
       </c>
     </row>
@@ -10709,6 +11417,14 @@
       <c r="K56" s="11" t="n"/>
       <c r="M56">
         <f>COUNTIF(MMV!$M$2:$M$100,"&gt;"&amp;MMV!M56)+1</f>
+        <v/>
+      </c>
+      <c r="N56">
+        <f>M56 - O56</f>
+        <v/>
+      </c>
+      <c r="O56">
+        <f>COUNTIF(MMV!$O$2:$O$100,"&gt;"&amp;MMV!O56)+1</f>
         <v/>
       </c>
     </row>
@@ -11285,7 +12001,7 @@
       <c r="K100" s="11" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M100">
+  <autoFilter ref="A1:O100">
     <sortState ref="A2:K55">
       <sortCondition ref="A1:A55"/>
     </sortState>
@@ -11715,7 +12431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -11753,6 +12469,14 @@
       <c r="E1" s="31" t="n">
         <v>44415</v>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="G1" s="31" t="n">
+        <v>44415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
@@ -11774,6 +12498,12 @@
       <c r="E2" t="n">
         <v>82281</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>82281</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -11795,6 +12525,12 @@
       <c r="E3" t="n">
         <v>80258</v>
       </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80258</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -11816,6 +12552,12 @@
       <c r="E4" t="n">
         <v>60500</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60500</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -11837,6 +12579,12 @@
       <c r="E5" t="n">
         <v>40192</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40192</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -11858,6 +12606,12 @@
       <c r="E6" t="n">
         <v>35222</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>35222</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -11879,6 +12633,12 @@
       <c r="E7" t="n">
         <v>27856</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>27856</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -11900,6 +12660,12 @@
       <c r="E8" t="n">
         <v>34627</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>34627</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
@@ -11921,6 +12687,12 @@
       <c r="E9" t="n">
         <v>27088</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>27088</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
@@ -11942,6 +12714,12 @@
       <c r="E10" t="n">
         <v>26748</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>26748</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -11963,6 +12741,12 @@
       <c r="E11" t="n">
         <v>27063</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27063</v>
+      </c>
     </row>
     <row r="12" ht="28.8" customHeight="1">
       <c r="A12" s="23" t="inlineStr">
@@ -11984,6 +12768,12 @@
       <c r="E12" t="n">
         <v>27437</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>27437</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="inlineStr">
@@ -12005,6 +12795,12 @@
       <c r="E13" t="n">
         <v>26201</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>26201</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="inlineStr">
@@ -12026,6 +12822,12 @@
       <c r="E14" t="n">
         <v>20532</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20532</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="23" t="inlineStr">
@@ -12047,6 +12849,12 @@
       <c r="E15" t="n">
         <v>25367</v>
       </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25367</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="23" t="inlineStr">
@@ -12068,6 +12876,12 @@
       <c r="E16" t="n">
         <v>21238</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21238</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -12089,6 +12903,12 @@
       <c r="E17" t="n">
         <v>33341</v>
       </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>33341</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -12110,6 +12930,12 @@
       <c r="E18" t="n">
         <v>21588</v>
       </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>21588</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -12131,6 +12957,12 @@
       <c r="E19" t="n">
         <v>19591</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>19591</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="inlineStr">
@@ -12152,6 +12984,12 @@
       <c r="E20" t="n">
         <v>18203</v>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18203</v>
+      </c>
     </row>
     <row r="21" ht="28.8" customHeight="1">
       <c r="A21" s="23" t="inlineStr">
@@ -12173,6 +13011,12 @@
       <c r="E21" t="n">
         <v>19752</v>
       </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19752</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="23" t="inlineStr">
@@ -12194,6 +13038,12 @@
       <c r="E22" t="n">
         <v>18912</v>
       </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>18912</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="23" t="inlineStr">
@@ -12215,6 +13065,12 @@
       <c r="E23" t="n">
         <v>17318</v>
       </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>17318</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="23" t="inlineStr">
@@ -12236,6 +13092,12 @@
       <c r="E24" t="n">
         <v>19008</v>
       </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>19008</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="23" t="inlineStr">
@@ -12257,6 +13119,12 @@
       <c r="E25" t="n">
         <v>16196</v>
       </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>16196</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="inlineStr">
@@ -12278,6 +13146,12 @@
       <c r="E26" t="n">
         <v>14788</v>
       </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>14788</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="23" t="inlineStr">
@@ -12299,6 +13173,12 @@
       <c r="E27" t="n">
         <v>15213</v>
       </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>15213</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="inlineStr">
@@ -12320,6 +13200,12 @@
       <c r="E28" t="n">
         <v>14419</v>
       </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>14419</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="23" t="inlineStr">
@@ -12341,6 +13227,12 @@
       <c r="E29" t="n">
         <v>13095</v>
       </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>13095</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="inlineStr">
@@ -12362,6 +13254,12 @@
       <c r="E30" t="n">
         <v>13006</v>
       </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>13006</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="inlineStr">
@@ -12383,6 +13281,12 @@
       <c r="E31" t="n">
         <v>13760</v>
       </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>13760</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="23" t="inlineStr">
@@ -12404,6 +13308,12 @@
       <c r="E32" t="n">
         <v>11390</v>
       </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>11390</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="23" t="inlineStr">
@@ -12425,6 +13335,12 @@
       <c r="E33" t="n">
         <v>12473</v>
       </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>12473</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="inlineStr">
@@ -12446,6 +13362,12 @@
       <c r="E34" t="n">
         <v>12689</v>
       </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12689</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="23" t="inlineStr">
@@ -12467,6 +13389,12 @@
       <c r="E35" t="n">
         <v>13040</v>
       </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>13040</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="23" t="inlineStr">
@@ -12488,6 +13416,12 @@
       <c r="E36" t="n">
         <v>11328</v>
       </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>11328</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="inlineStr">
@@ -12509,6 +13443,12 @@
       <c r="E37" t="n">
         <v>11072</v>
       </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>11072</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="23" t="inlineStr">
@@ -12530,6 +13470,12 @@
       <c r="E38" t="n">
         <v>10733</v>
       </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10733</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="23" t="inlineStr">
@@ -12551,6 +13497,12 @@
       <c r="E39" t="n">
         <v>10447</v>
       </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10447</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="inlineStr">
@@ -12572,6 +13524,12 @@
       <c r="E40" t="n">
         <v>11068</v>
       </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>11068</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="23" t="inlineStr">
@@ -12593,6 +13551,12 @@
       <c r="E41" t="n">
         <v>10425</v>
       </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10425</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="inlineStr">
@@ -12614,6 +13578,12 @@
       <c r="E42" t="n">
         <v>11730</v>
       </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>11730</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="23" t="inlineStr">
@@ -12635,6 +13605,12 @@
       <c r="E43" t="n">
         <v>9957</v>
       </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9957</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="23" t="inlineStr">
@@ -12656,6 +13632,12 @@
       <c r="E44" t="n">
         <v>10570</v>
       </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10570</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="23" t="inlineStr">
@@ -12677,6 +13659,12 @@
       <c r="E45" t="n">
         <v>10647</v>
       </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10647</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="23" t="inlineStr">
@@ -12698,6 +13686,12 @@
       <c r="E46" t="n">
         <v>10284</v>
       </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10284</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="23" t="inlineStr">
@@ -12719,6 +13713,12 @@
       <c r="E47" t="n">
         <v>9319</v>
       </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9319</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="23" t="inlineStr">
@@ -12738,6 +13738,12 @@
         <v>66</v>
       </c>
       <c r="E48" t="n">
+        <v>9877</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>9877</v>
       </c>
     </row>
@@ -12801,6 +13807,12 @@
       <c r="E52" t="n">
         <v>13128</v>
       </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>13128</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="23" t="inlineStr">
@@ -12817,6 +13829,12 @@
       <c r="E53" t="n">
         <v>9741</v>
       </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9741</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="23" t="inlineStr">
@@ -12831,6 +13849,12 @@
       </c>
       <c r="C54" s="11" t="n"/>
       <c r="E54" t="n">
+        <v>9363</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>9363</v>
       </c>
     </row>
@@ -13065,7 +14089,7 @@
       <c r="C100" s="11" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E100">
+  <autoFilter ref="A1:G100">
     <sortState ref="A2:C56">
       <sortCondition ref="A1:A56"/>
     </sortState>
@@ -13186,7 +14210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -13224,6 +14248,14 @@
       <c r="E1" s="31" t="n">
         <v>44415</v>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="G1" s="31" t="n">
+        <v>44415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
@@ -13248,6 +14280,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E2)+1</f>
         <v/>
       </c>
+      <c r="F2">
+        <f>E2 - G2</f>
+        <v/>
+      </c>
+      <c r="G2">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G2)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -13272,6 +14312,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E3)+1</f>
         <v/>
       </c>
+      <c r="F3">
+        <f>E3 - G3</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G3)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -13296,6 +14344,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E4)+1</f>
         <v/>
       </c>
+      <c r="F4">
+        <f>E4 - G4</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G4)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -13320,6 +14376,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E5)+1</f>
         <v/>
       </c>
+      <c r="F5">
+        <f>E5 - G5</f>
+        <v/>
+      </c>
+      <c r="G5">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G5)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -13344,6 +14408,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E6)+1</f>
         <v/>
       </c>
+      <c r="F6">
+        <f>E6 - G6</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G6)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -13368,6 +14440,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E7)+1</f>
         <v/>
       </c>
+      <c r="F7">
+        <f>E7 - G7</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G7)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -13392,6 +14472,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E8)+1</f>
         <v/>
       </c>
+      <c r="F8">
+        <f>E8 - G8</f>
+        <v/>
+      </c>
+      <c r="G8">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G8)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
@@ -13416,6 +14504,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E9)+1</f>
         <v/>
       </c>
+      <c r="F9">
+        <f>E9 - G9</f>
+        <v/>
+      </c>
+      <c r="G9">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G9)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
@@ -13440,6 +14536,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E10)+1</f>
         <v/>
       </c>
+      <c r="F10">
+        <f>E10 - G10</f>
+        <v/>
+      </c>
+      <c r="G10">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G10)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -13464,6 +14568,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E11)+1</f>
         <v/>
       </c>
+      <c r="F11">
+        <f>E11 - G11</f>
+        <v/>
+      </c>
+      <c r="G11">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G11)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="12" ht="28.8" customHeight="1">
       <c r="A12" s="23" t="inlineStr">
@@ -13488,6 +14600,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E12)+1</f>
         <v/>
       </c>
+      <c r="F12">
+        <f>E12 - G12</f>
+        <v/>
+      </c>
+      <c r="G12">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G12)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="inlineStr">
@@ -13512,6 +14632,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E13)+1</f>
         <v/>
       </c>
+      <c r="F13">
+        <f>E13 - G13</f>
+        <v/>
+      </c>
+      <c r="G13">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G13)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="inlineStr">
@@ -13536,6 +14664,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E14)+1</f>
         <v/>
       </c>
+      <c r="F14">
+        <f>E14 - G14</f>
+        <v/>
+      </c>
+      <c r="G14">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G14)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="23" t="inlineStr">
@@ -13560,6 +14696,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E15)+1</f>
         <v/>
       </c>
+      <c r="F15">
+        <f>E15 - G15</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G15)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="23" t="inlineStr">
@@ -13584,6 +14728,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E16)+1</f>
         <v/>
       </c>
+      <c r="F16">
+        <f>E16 - G16</f>
+        <v/>
+      </c>
+      <c r="G16">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G16)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -13608,6 +14760,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E17)+1</f>
         <v/>
       </c>
+      <c r="F17">
+        <f>E17 - G17</f>
+        <v/>
+      </c>
+      <c r="G17">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G17)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -13632,6 +14792,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E18)+1</f>
         <v/>
       </c>
+      <c r="F18">
+        <f>E18 - G18</f>
+        <v/>
+      </c>
+      <c r="G18">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G18)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -13656,6 +14824,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E19)+1</f>
         <v/>
       </c>
+      <c r="F19">
+        <f>E19 - G19</f>
+        <v/>
+      </c>
+      <c r="G19">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G19)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="inlineStr">
@@ -13680,6 +14856,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E20)+1</f>
         <v/>
       </c>
+      <c r="F20">
+        <f>E20 - G20</f>
+        <v/>
+      </c>
+      <c r="G20">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G20)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="21" ht="28.8" customHeight="1">
       <c r="A21" s="23" t="inlineStr">
@@ -13704,6 +14888,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E21)+1</f>
         <v/>
       </c>
+      <c r="F21">
+        <f>E21 - G21</f>
+        <v/>
+      </c>
+      <c r="G21">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G21)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="23" t="inlineStr">
@@ -13728,6 +14920,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E22)+1</f>
         <v/>
       </c>
+      <c r="F22">
+        <f>E22 - G22</f>
+        <v/>
+      </c>
+      <c r="G22">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G22)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="23" t="inlineStr">
@@ -13752,6 +14952,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E23)+1</f>
         <v/>
       </c>
+      <c r="F23">
+        <f>E23 - G23</f>
+        <v/>
+      </c>
+      <c r="G23">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G23)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="23" t="inlineStr">
@@ -13776,6 +14984,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E24)+1</f>
         <v/>
       </c>
+      <c r="F24">
+        <f>E24 - G24</f>
+        <v/>
+      </c>
+      <c r="G24">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G24)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="23" t="inlineStr">
@@ -13800,6 +15016,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E25)+1</f>
         <v/>
       </c>
+      <c r="F25">
+        <f>E25 - G25</f>
+        <v/>
+      </c>
+      <c r="G25">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G25)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="inlineStr">
@@ -13824,6 +15048,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E26)+1</f>
         <v/>
       </c>
+      <c r="F26">
+        <f>E26 - G26</f>
+        <v/>
+      </c>
+      <c r="G26">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G26)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="23" t="inlineStr">
@@ -13848,6 +15080,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E27)+1</f>
         <v/>
       </c>
+      <c r="F27">
+        <f>E27 - G27</f>
+        <v/>
+      </c>
+      <c r="G27">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G27)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="inlineStr">
@@ -13872,6 +15112,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E28)+1</f>
         <v/>
       </c>
+      <c r="F28">
+        <f>E28 - G28</f>
+        <v/>
+      </c>
+      <c r="G28">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G28)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="23" t="inlineStr">
@@ -13896,6 +15144,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E29)+1</f>
         <v/>
       </c>
+      <c r="F29">
+        <f>E29 - G29</f>
+        <v/>
+      </c>
+      <c r="G29">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G29)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="inlineStr">
@@ -13920,6 +15176,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E30)+1</f>
         <v/>
       </c>
+      <c r="F30">
+        <f>E30 - G30</f>
+        <v/>
+      </c>
+      <c r="G30">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G30)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="inlineStr">
@@ -13944,6 +15208,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E31)+1</f>
         <v/>
       </c>
+      <c r="F31">
+        <f>E31 - G31</f>
+        <v/>
+      </c>
+      <c r="G31">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G31)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="23" t="inlineStr">
@@ -13968,6 +15240,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E32)+1</f>
         <v/>
       </c>
+      <c r="F32">
+        <f>E32 - G32</f>
+        <v/>
+      </c>
+      <c r="G32">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G32)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="23" t="inlineStr">
@@ -13992,6 +15272,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E33)+1</f>
         <v/>
       </c>
+      <c r="F33">
+        <f>E33 - G33</f>
+        <v/>
+      </c>
+      <c r="G33">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G33)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="inlineStr">
@@ -14016,6 +15304,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E34)+1</f>
         <v/>
       </c>
+      <c r="F34">
+        <f>E34 - G34</f>
+        <v/>
+      </c>
+      <c r="G34">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G34)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="23" t="inlineStr">
@@ -14040,6 +15336,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E35)+1</f>
         <v/>
       </c>
+      <c r="F35">
+        <f>E35 - G35</f>
+        <v/>
+      </c>
+      <c r="G35">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G35)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="23" t="inlineStr">
@@ -14064,6 +15368,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E36)+1</f>
         <v/>
       </c>
+      <c r="F36">
+        <f>E36 - G36</f>
+        <v/>
+      </c>
+      <c r="G36">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G36)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="inlineStr">
@@ -14088,6 +15400,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E37)+1</f>
         <v/>
       </c>
+      <c r="F37">
+        <f>E37 - G37</f>
+        <v/>
+      </c>
+      <c r="G37">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G37)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="23" t="inlineStr">
@@ -14112,6 +15432,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E38)+1</f>
         <v/>
       </c>
+      <c r="F38">
+        <f>E38 - G38</f>
+        <v/>
+      </c>
+      <c r="G38">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G38)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="23" t="inlineStr">
@@ -14136,6 +15464,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E39)+1</f>
         <v/>
       </c>
+      <c r="F39">
+        <f>E39 - G39</f>
+        <v/>
+      </c>
+      <c r="G39">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G39)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="inlineStr">
@@ -14160,6 +15496,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E40)+1</f>
         <v/>
       </c>
+      <c r="F40">
+        <f>E40 - G40</f>
+        <v/>
+      </c>
+      <c r="G40">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G40)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="23" t="inlineStr">
@@ -14184,6 +15528,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E41)+1</f>
         <v/>
       </c>
+      <c r="F41">
+        <f>E41 - G41</f>
+        <v/>
+      </c>
+      <c r="G41">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G41)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="inlineStr">
@@ -14208,6 +15560,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E42)+1</f>
         <v/>
       </c>
+      <c r="F42">
+        <f>E42 - G42</f>
+        <v/>
+      </c>
+      <c r="G42">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G42)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="23" t="inlineStr">
@@ -14232,6 +15592,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E43)+1</f>
         <v/>
       </c>
+      <c r="F43">
+        <f>E43 - G43</f>
+        <v/>
+      </c>
+      <c r="G43">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G43)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="23" t="inlineStr">
@@ -14256,6 +15624,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E44)+1</f>
         <v/>
       </c>
+      <c r="F44">
+        <f>E44 - G44</f>
+        <v/>
+      </c>
+      <c r="G44">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G44)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="23" t="inlineStr">
@@ -14280,6 +15656,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E45)+1</f>
         <v/>
       </c>
+      <c r="F45">
+        <f>E45 - G45</f>
+        <v/>
+      </c>
+      <c r="G45">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G45)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="23" t="inlineStr">
@@ -14304,6 +15688,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E46)+1</f>
         <v/>
       </c>
+      <c r="F46">
+        <f>E46 - G46</f>
+        <v/>
+      </c>
+      <c r="G46">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G46)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="23" t="inlineStr">
@@ -14328,6 +15720,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E47)+1</f>
         <v/>
       </c>
+      <c r="F47">
+        <f>E47 - G47</f>
+        <v/>
+      </c>
+      <c r="G47">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G47)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="23" t="inlineStr">
@@ -14350,6 +15750,14 @@
       </c>
       <c r="E48">
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E48)+1</f>
+        <v/>
+      </c>
+      <c r="F48">
+        <f>E48 - G48</f>
+        <v/>
+      </c>
+      <c r="G48">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G48)+1</f>
         <v/>
       </c>
     </row>
@@ -14417,6 +15825,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E52)+1</f>
         <v/>
       </c>
+      <c r="F52">
+        <f>E52 - G52</f>
+        <v/>
+      </c>
+      <c r="G52">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G52)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="23" t="inlineStr">
@@ -14434,6 +15850,14 @@
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E53)+1</f>
         <v/>
       </c>
+      <c r="F53">
+        <f>E53 - G53</f>
+        <v/>
+      </c>
+      <c r="G53">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G53)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="23" t="inlineStr">
@@ -14449,6 +15873,14 @@
       <c r="C54" s="11" t="n"/>
       <c r="E54">
         <f>COUNTIF(MFV!$E$2:$E$100,"&gt;"&amp;MFV!E54)+1</f>
+        <v/>
+      </c>
+      <c r="F54">
+        <f>E54 - G54</f>
+        <v/>
+      </c>
+      <c r="G54">
+        <f>COUNTIF(MFV!$G$2:$G$100,"&gt;"&amp;MFV!G54)+1</f>
         <v/>
       </c>
     </row>
@@ -14683,7 +16115,7 @@
       <c r="C100" s="11" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E100">
+  <autoFilter ref="A1:G100">
     <sortState ref="A2:C56">
       <sortCondition ref="A1:A56"/>
     </sortState>
@@ -14816,7 +16248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -14924,6 +16356,14 @@
       <c r="S1" s="31" t="n">
         <v>44415</v>
       </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="U1" s="31" t="n">
+        <v>44415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
@@ -14991,6 +16431,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S2)+1</f>
         <v/>
       </c>
+      <c r="T2">
+        <f>S2 - U2</f>
+        <v/>
+      </c>
+      <c r="U2">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U2)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -15056,6 +16504,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S3)+1</f>
         <v/>
       </c>
+      <c r="T3">
+        <f>S3 - U3</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U3)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -15121,6 +16577,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S4)+1</f>
         <v/>
       </c>
+      <c r="T4">
+        <f>S4 - U4</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U4)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -15186,6 +16650,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S5)+1</f>
         <v/>
       </c>
+      <c r="T5">
+        <f>S5 - U5</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U5)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -15251,6 +16723,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S6)+1</f>
         <v/>
       </c>
+      <c r="T6">
+        <f>S6 - U6</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U6)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -15316,6 +16796,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S7)+1</f>
         <v/>
       </c>
+      <c r="T7">
+        <f>S7 - U7</f>
+        <v/>
+      </c>
+      <c r="U7">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U7)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -15381,6 +16869,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S8)+1</f>
         <v/>
       </c>
+      <c r="T8">
+        <f>S8 - U8</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U8)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
@@ -15446,6 +16942,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S9)+1</f>
         <v/>
       </c>
+      <c r="T9">
+        <f>S9 - U9</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U9)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
@@ -15511,6 +17015,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S10)+1</f>
         <v/>
       </c>
+      <c r="T10">
+        <f>S10 - U10</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U10)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -15576,6 +17088,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S11)+1</f>
         <v/>
       </c>
+      <c r="T11">
+        <f>S11 - U11</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U11)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="inlineStr">
@@ -15641,6 +17161,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S12)+1</f>
         <v/>
       </c>
+      <c r="T12">
+        <f>S12 - U12</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U12)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="inlineStr">
@@ -15706,6 +17234,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S13)+1</f>
         <v/>
       </c>
+      <c r="T13">
+        <f>S13 - U13</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U13)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="inlineStr">
@@ -15771,6 +17307,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S14)+1</f>
         <v/>
       </c>
+      <c r="T14">
+        <f>S14 - U14</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U14)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="15" ht="28.8" customHeight="1">
       <c r="A15" s="23" t="inlineStr">
@@ -15836,6 +17380,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S15)+1</f>
         <v/>
       </c>
+      <c r="T15">
+        <f>S15 - U15</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U15)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="23" t="inlineStr">
@@ -15901,6 +17453,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S16)+1</f>
         <v/>
       </c>
+      <c r="T16">
+        <f>S16 - U16</f>
+        <v/>
+      </c>
+      <c r="U16">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U16)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -15966,6 +17526,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S17)+1</f>
         <v/>
       </c>
+      <c r="T17">
+        <f>S17 - U17</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U17)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -16031,6 +17599,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S18)+1</f>
         <v/>
       </c>
+      <c r="T18">
+        <f>S18 - U18</f>
+        <v/>
+      </c>
+      <c r="U18">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U18)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="19" ht="28.8" customHeight="1">
       <c r="A19" s="23" t="inlineStr">
@@ -16096,6 +17672,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S19)+1</f>
         <v/>
       </c>
+      <c r="T19">
+        <f>S19 - U19</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U19)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="inlineStr">
@@ -16161,6 +17745,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S20)+1</f>
         <v/>
       </c>
+      <c r="T20">
+        <f>S20 - U20</f>
+        <v/>
+      </c>
+      <c r="U20">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U20)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="23" t="inlineStr">
@@ -16226,6 +17818,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S21)+1</f>
         <v/>
       </c>
+      <c r="T21">
+        <f>S21 - U21</f>
+        <v/>
+      </c>
+      <c r="U21">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U21)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="22" ht="28.8" customHeight="1">
       <c r="A22" s="23" t="inlineStr">
@@ -16291,6 +17891,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S22)+1</f>
         <v/>
       </c>
+      <c r="T22">
+        <f>S22 - U22</f>
+        <v/>
+      </c>
+      <c r="U22">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U22)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="23" ht="28.8" customHeight="1">
       <c r="A23" s="23" t="inlineStr">
@@ -16413,6 +18021,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S24)+1</f>
         <v/>
       </c>
+      <c r="T24">
+        <f>S24 - U24</f>
+        <v/>
+      </c>
+      <c r="U24">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U24)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="25" ht="28.8" customHeight="1">
       <c r="A25" s="23" t="inlineStr">
@@ -16478,6 +18094,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S25)+1</f>
         <v/>
       </c>
+      <c r="T25">
+        <f>S25 - U25</f>
+        <v/>
+      </c>
+      <c r="U25">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U25)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="inlineStr">
@@ -16543,6 +18167,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S26)+1</f>
         <v/>
       </c>
+      <c r="T26">
+        <f>S26 - U26</f>
+        <v/>
+      </c>
+      <c r="U26">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U26)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="27" ht="28.8" customHeight="1">
       <c r="A27" s="23" t="inlineStr">
@@ -16608,6 +18240,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S27)+1</f>
         <v/>
       </c>
+      <c r="T27">
+        <f>S27 - U27</f>
+        <v/>
+      </c>
+      <c r="U27">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U27)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="inlineStr">
@@ -16673,6 +18313,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S28)+1</f>
         <v/>
       </c>
+      <c r="T28">
+        <f>S28 - U28</f>
+        <v/>
+      </c>
+      <c r="U28">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U28)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="23" t="inlineStr">
@@ -16738,6 +18386,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S29)+1</f>
         <v/>
       </c>
+      <c r="T29">
+        <f>S29 - U29</f>
+        <v/>
+      </c>
+      <c r="U29">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U29)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="inlineStr">
@@ -16803,6 +18459,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S30)+1</f>
         <v/>
       </c>
+      <c r="T30">
+        <f>S30 - U30</f>
+        <v/>
+      </c>
+      <c r="U30">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U30)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="inlineStr">
@@ -16868,6 +18532,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S31)+1</f>
         <v/>
       </c>
+      <c r="T31">
+        <f>S31 - U31</f>
+        <v/>
+      </c>
+      <c r="U31">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U31)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="23" t="inlineStr">
@@ -16933,6 +18605,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S32)+1</f>
         <v/>
       </c>
+      <c r="T32">
+        <f>S32 - U32</f>
+        <v/>
+      </c>
+      <c r="U32">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U32)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="23" t="inlineStr">
@@ -16998,6 +18678,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S33)+1</f>
         <v/>
       </c>
+      <c r="T33">
+        <f>S33 - U33</f>
+        <v/>
+      </c>
+      <c r="U33">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U33)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="inlineStr">
@@ -17063,6 +18751,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S34)+1</f>
         <v/>
       </c>
+      <c r="T34">
+        <f>S34 - U34</f>
+        <v/>
+      </c>
+      <c r="U34">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U34)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="23" t="inlineStr">
@@ -17128,6 +18824,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S35)+1</f>
         <v/>
       </c>
+      <c r="T35">
+        <f>S35 - U35</f>
+        <v/>
+      </c>
+      <c r="U35">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U35)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="23" t="inlineStr">
@@ -17193,6 +18897,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S36)+1</f>
         <v/>
       </c>
+      <c r="T36">
+        <f>S36 - U36</f>
+        <v/>
+      </c>
+      <c r="U36">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U36)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="inlineStr">
@@ -17258,6 +18970,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S37)+1</f>
         <v/>
       </c>
+      <c r="T37">
+        <f>S37 - U37</f>
+        <v/>
+      </c>
+      <c r="U37">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U37)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="38" ht="28.8" customHeight="1">
       <c r="A38" s="23" t="inlineStr">
@@ -17323,6 +19043,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S38)+1</f>
         <v/>
       </c>
+      <c r="T38">
+        <f>S38 - U38</f>
+        <v/>
+      </c>
+      <c r="U38">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U38)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="23" t="inlineStr">
@@ -17388,6 +19116,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S39)+1</f>
         <v/>
       </c>
+      <c r="T39">
+        <f>S39 - U39</f>
+        <v/>
+      </c>
+      <c r="U39">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U39)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="inlineStr">
@@ -17453,6 +19189,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S40)+1</f>
         <v/>
       </c>
+      <c r="T40">
+        <f>S40 - U40</f>
+        <v/>
+      </c>
+      <c r="U40">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U40)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="41" ht="28.8" customHeight="1">
       <c r="A41" s="23" t="inlineStr">
@@ -17518,6 +19262,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S41)+1</f>
         <v/>
       </c>
+      <c r="T41">
+        <f>S41 - U41</f>
+        <v/>
+      </c>
+      <c r="U41">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U41)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="inlineStr">
@@ -17583,6 +19335,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S42)+1</f>
         <v/>
       </c>
+      <c r="T42">
+        <f>S42 - U42</f>
+        <v/>
+      </c>
+      <c r="U42">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U42)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="23" t="inlineStr">
@@ -17646,6 +19406,14 @@
       </c>
       <c r="S43">
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S43)+1</f>
+        <v/>
+      </c>
+      <c r="T43">
+        <f>S43 - U43</f>
+        <v/>
+      </c>
+      <c r="U43">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U43)+1</f>
         <v/>
       </c>
     </row>
@@ -18105,6 +19873,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S54)+1</f>
         <v/>
       </c>
+      <c r="T54">
+        <f>S54 - U54</f>
+        <v/>
+      </c>
+      <c r="U54">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U54)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="23" t="inlineStr">
@@ -18154,6 +19930,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S55)+1</f>
         <v/>
       </c>
+      <c r="T55">
+        <f>S55 - U55</f>
+        <v/>
+      </c>
+      <c r="U55">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U55)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="56" ht="28.8" customHeight="1">
       <c r="A56" s="23" t="inlineStr">
@@ -18201,6 +19985,14 @@
       </c>
       <c r="S56">
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S56)+1</f>
+        <v/>
+      </c>
+      <c r="T56">
+        <f>S56 - U56</f>
+        <v/>
+      </c>
+      <c r="U56">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U56)+1</f>
         <v/>
       </c>
     </row>
@@ -18248,6 +20040,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S57)+1</f>
         <v/>
       </c>
+      <c r="T57">
+        <f>S57 - U57</f>
+        <v/>
+      </c>
+      <c r="U57">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U57)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="58" ht="28.8" customHeight="1">
       <c r="A58" s="23" t="inlineStr">
@@ -18314,6 +20114,14 @@
       </c>
       <c r="S59">
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S59)+1</f>
+        <v/>
+      </c>
+      <c r="T59">
+        <f>S59 - U59</f>
+        <v/>
+      </c>
+      <c r="U59">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U59)+1</f>
         <v/>
       </c>
     </row>
@@ -18353,6 +20161,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S60)+1</f>
         <v/>
       </c>
+      <c r="T60">
+        <f>S60 - U60</f>
+        <v/>
+      </c>
+      <c r="U60">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U60)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="23" t="inlineStr">
@@ -18388,6 +20204,14 @@
       </c>
       <c r="S61">
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S61)+1</f>
+        <v/>
+      </c>
+      <c r="T61">
+        <f>S61 - U61</f>
+        <v/>
+      </c>
+      <c r="U61">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U61)+1</f>
         <v/>
       </c>
     </row>
@@ -18450,6 +20274,14 @@
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S63)+1</f>
         <v/>
       </c>
+      <c r="T63">
+        <f>S63 - U63</f>
+        <v/>
+      </c>
+      <c r="U63">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U63)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="23" t="inlineStr">
@@ -18479,6 +20311,14 @@
       <c r="Q64" s="32" t="n"/>
       <c r="S64">
         <f>COUNTIF(ARV!$S$2:$S$100,"&gt;"&amp;ARV!S64)+1</f>
+        <v/>
+      </c>
+      <c r="T64">
+        <f>S64 - U64</f>
+        <v/>
+      </c>
+      <c r="U64">
+        <f>COUNTIF(ARV!$U$2:$U$100,"&gt;"&amp;ARV!U64)+1</f>
         <v/>
       </c>
     </row>
@@ -19167,7 +21007,7 @@
       <c r="Q100" s="32" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S113">
+  <autoFilter ref="A1:U113">
     <sortState ref="A2:Q62">
       <sortCondition ref="A1:A62"/>
     </sortState>
@@ -21975,7 +23815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -22083,6 +23923,14 @@
       <c r="S1" s="31" t="n">
         <v>44415</v>
       </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="U1" s="31" t="n">
+        <v>44415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
@@ -22148,6 +23996,12 @@
       <c r="S2" t="n">
         <v>2990136</v>
       </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2990136</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -22212,6 +24066,12 @@
       <c r="S3" t="n">
         <v>2974295</v>
       </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2974295</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -22276,6 +24136,12 @@
       <c r="S4" t="n">
         <v>2481036</v>
       </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2481036</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -22340,6 +24206,12 @@
       <c r="S5" t="n">
         <v>2552526</v>
       </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2552526</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -22404,6 +24276,12 @@
       <c r="S6" t="n">
         <v>2451680</v>
       </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2451680</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -22467,6 +24345,12 @@
       <c r="S7" t="n">
         <v>2200298</v>
       </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2200298</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -22531,6 +24415,12 @@
       <c r="S8" t="n">
         <v>2291442</v>
       </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2291442</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
@@ -22594,6 +24484,12 @@
       <c r="S9" t="n">
         <v>2002361</v>
       </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2002361</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
@@ -22657,6 +24553,12 @@
       <c r="S10" t="n">
         <v>2154973</v>
       </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2154973</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -22720,6 +24622,12 @@
       <c r="S11" t="n">
         <v>1948022</v>
       </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1948022</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="inlineStr">
@@ -22783,6 +24691,12 @@
       <c r="S12" t="n">
         <v>2048520</v>
       </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2048520</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="inlineStr">
@@ -22846,6 +24760,12 @@
       <c r="S13" t="n">
         <v>1741676</v>
       </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1741676</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="inlineStr">
@@ -22907,6 +24827,12 @@
         <v>101051</v>
       </c>
       <c r="S14" t="n">
+        <v>1776713</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>1776713</v>
       </c>
     </row>
@@ -23023,6 +24949,12 @@
       <c r="S16" t="n">
         <v>2019927</v>
       </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2019927</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -23086,6 +25018,12 @@
       <c r="S17" t="n">
         <v>1770447</v>
       </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1770447</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -23149,6 +25087,12 @@
       <c r="S18" t="n">
         <v>1731043</v>
       </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1731043</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -23212,6 +25156,12 @@
       <c r="S19" t="n">
         <v>1925265</v>
       </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1925265</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="inlineStr">
@@ -23275,6 +25225,12 @@
       <c r="S20" t="n">
         <v>1810931</v>
       </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1810931</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="23" t="inlineStr">
@@ -23338,6 +25294,12 @@
       <c r="S21" t="n">
         <v>1600729</v>
       </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1600729</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="23" t="inlineStr">
@@ -23401,6 +25363,12 @@
       <c r="S22" t="n">
         <v>1709592</v>
       </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1709592</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="23" t="inlineStr">
@@ -23464,6 +25432,12 @@
       <c r="S23" t="n">
         <v>1572135</v>
       </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1572135</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="23" t="inlineStr">
@@ -23527,6 +25501,12 @@
       <c r="S24" t="n">
         <v>1955564</v>
       </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1955564</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="23" t="inlineStr">
@@ -23590,6 +25570,12 @@
       <c r="S25" t="n">
         <v>1692832</v>
       </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1692832</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="inlineStr">
@@ -23653,6 +25639,12 @@
       <c r="S26" t="n">
         <v>1623218</v>
       </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1623218</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="23" t="inlineStr">
@@ -23716,6 +25708,12 @@
       <c r="S27" t="n">
         <v>1625925</v>
       </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1625925</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="inlineStr">
@@ -23779,6 +25777,12 @@
       <c r="S28" t="n">
         <v>1449542</v>
       </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1449542</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="23" t="inlineStr">
@@ -23842,6 +25846,12 @@
       <c r="S29" t="n">
         <v>1599938</v>
       </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1599938</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="inlineStr">
@@ -23905,6 +25915,12 @@
       <c r="S30" t="n">
         <v>1440495</v>
       </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1440495</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="inlineStr">
@@ -23968,6 +25984,12 @@
       <c r="S31" t="n">
         <v>1410462</v>
       </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1410462</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="23" t="inlineStr">
@@ -24031,6 +26053,12 @@
       <c r="S32" t="n">
         <v>1590816</v>
       </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1590816</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="23" t="inlineStr">
@@ -24094,6 +26122,12 @@
       <c r="S33" t="n">
         <v>1410098</v>
       </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1410098</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="inlineStr">
@@ -24157,6 +26191,12 @@
       <c r="S34" t="n">
         <v>1670180</v>
       </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1670180</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="23" t="inlineStr">
@@ -24273,6 +26313,12 @@
       <c r="S36" t="n">
         <v>1338130</v>
       </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1338130</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="inlineStr">
@@ -24446,6 +26492,12 @@
       <c r="S39" t="n">
         <v>1407121</v>
       </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1407121</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="inlineStr">
@@ -24509,6 +26561,12 @@
       <c r="S40" t="n">
         <v>1420417</v>
       </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1420417</v>
+      </c>
     </row>
     <row r="41" ht="28.8" customHeight="1">
       <c r="A41" s="23" t="inlineStr">
@@ -24572,6 +26630,12 @@
       <c r="S41" t="n">
         <v>1488711</v>
       </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1488711</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="inlineStr">
@@ -24635,6 +26699,12 @@
       <c r="S42" t="n">
         <v>1353007</v>
       </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1353007</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="23" t="inlineStr">
@@ -24698,6 +26768,12 @@
       <c r="S43" t="n">
         <v>1432969</v>
       </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1432969</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="23" t="inlineStr">
@@ -24761,6 +26837,12 @@
       <c r="S44" t="n">
         <v>1633292</v>
       </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1633292</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="23" t="inlineStr">
@@ -24822,6 +26904,12 @@
         <v>90377</v>
       </c>
       <c r="S45" t="n">
+        <v>1414472</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>1414472</v>
       </c>
     </row>
@@ -24932,6 +27020,12 @@
       <c r="S47" t="n">
         <v>1497154</v>
       </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1497154</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="23" t="inlineStr">
@@ -24995,6 +27089,12 @@
       <c r="S48" t="n">
         <v>1379195</v>
       </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1379195</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="23" t="inlineStr">
@@ -25058,6 +27158,12 @@
       <c r="S49" t="n">
         <v>1479357</v>
       </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1479357</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="23" t="inlineStr">
@@ -25119,6 +27225,12 @@
         <v>250387</v>
       </c>
       <c r="S50" t="n">
+        <v>1922334</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
         <v>1922334</v>
       </c>
     </row>
@@ -25238,6 +27350,12 @@
       <c r="S53" t="n">
         <v>1599843</v>
       </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1599843</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="23" t="inlineStr">
@@ -25275,6 +27393,12 @@
         <v>128919</v>
       </c>
       <c r="S54" t="n">
+        <v>1444199</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
         <v>1444199</v>
       </c>
     </row>
@@ -25312,6 +27436,12 @@
       <c r="S55" t="n">
         <v>1427800</v>
       </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1427800</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="23" t="inlineStr">
@@ -25345,6 +27475,12 @@
         <v>180994</v>
       </c>
       <c r="S56" t="n">
+        <v>1469419</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
         <v>1469419</v>
       </c>
     </row>
@@ -25377,6 +27513,12 @@
       <c r="S57" t="n">
         <v>1677461</v>
       </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1677461</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="23" t="inlineStr">
@@ -25405,6 +27547,12 @@
       <c r="P58" s="35" t="n"/>
       <c r="Q58" s="11" t="n"/>
       <c r="S58" t="n">
+        <v>1340608</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
         <v>1340608</v>
       </c>
     </row>
@@ -26207,7 +28355,7 @@
       <c r="Q100" s="11" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S100">
+  <autoFilter ref="A1:U100">
     <sortState ref="A2:Q56">
       <sortCondition ref="A1:A56"/>
     </sortState>
@@ -27932,7 +30080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -28040,6 +30188,14 @@
       <c r="S1" s="31" t="n">
         <v>44415</v>
       </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="U1" s="31" t="n">
+        <v>44415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
@@ -28107,6 +30263,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S2)+1</f>
         <v/>
       </c>
+      <c r="T2">
+        <f>S2 - U2</f>
+        <v/>
+      </c>
+      <c r="U2">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U2)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -28172,6 +30336,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S3)+1</f>
         <v/>
       </c>
+      <c r="T3">
+        <f>S3 - U3</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U3)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -28237,6 +30409,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S4)+1</f>
         <v/>
       </c>
+      <c r="T4">
+        <f>S4 - U4</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U4)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -28302,6 +30482,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S5)+1</f>
         <v/>
       </c>
+      <c r="T5">
+        <f>S5 - U5</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U5)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -28367,6 +30555,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S6)+1</f>
         <v/>
       </c>
+      <c r="T6">
+        <f>S6 - U6</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U6)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -28432,6 +30628,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S7)+1</f>
         <v/>
       </c>
+      <c r="T7">
+        <f>S7 - U7</f>
+        <v/>
+      </c>
+      <c r="U7">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U7)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -28497,6 +30701,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S8)+1</f>
         <v/>
       </c>
+      <c r="T8">
+        <f>S8 - U8</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U8)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
@@ -28562,6 +30774,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S9)+1</f>
         <v/>
       </c>
+      <c r="T9">
+        <f>S9 - U9</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U9)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
@@ -28627,6 +30847,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S10)+1</f>
         <v/>
       </c>
+      <c r="T10">
+        <f>S10 - U10</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U10)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -28692,6 +30920,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S11)+1</f>
         <v/>
       </c>
+      <c r="T11">
+        <f>S11 - U11</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U11)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="inlineStr">
@@ -28757,6 +30993,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S12)+1</f>
         <v/>
       </c>
+      <c r="T12">
+        <f>S12 - U12</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U12)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="inlineStr">
@@ -28822,6 +31066,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S13)+1</f>
         <v/>
       </c>
+      <c r="T13">
+        <f>S13 - U13</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U13)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="inlineStr">
@@ -28885,6 +31137,14 @@
       </c>
       <c r="S14">
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S14)+1</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>S14 - U14</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U14)+1</f>
         <v/>
       </c>
     </row>
@@ -29003,6 +31263,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S16)+1</f>
         <v/>
       </c>
+      <c r="T16">
+        <f>S16 - U16</f>
+        <v/>
+      </c>
+      <c r="U16">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U16)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -29068,6 +31336,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S17)+1</f>
         <v/>
       </c>
+      <c r="T17">
+        <f>S17 - U17</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U17)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -29133,6 +31409,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S18)+1</f>
         <v/>
       </c>
+      <c r="T18">
+        <f>S18 - U18</f>
+        <v/>
+      </c>
+      <c r="U18">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U18)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -29198,6 +31482,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S19)+1</f>
         <v/>
       </c>
+      <c r="T19">
+        <f>S19 - U19</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U19)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="inlineStr">
@@ -29263,6 +31555,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S20)+1</f>
         <v/>
       </c>
+      <c r="T20">
+        <f>S20 - U20</f>
+        <v/>
+      </c>
+      <c r="U20">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U20)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="23" t="inlineStr">
@@ -29328,6 +31628,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S21)+1</f>
         <v/>
       </c>
+      <c r="T21">
+        <f>S21 - U21</f>
+        <v/>
+      </c>
+      <c r="U21">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U21)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="23" t="inlineStr">
@@ -29393,6 +31701,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S22)+1</f>
         <v/>
       </c>
+      <c r="T22">
+        <f>S22 - U22</f>
+        <v/>
+      </c>
+      <c r="U22">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U22)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="23" t="inlineStr">
@@ -29458,6 +31774,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S23)+1</f>
         <v/>
       </c>
+      <c r="T23">
+        <f>S23 - U23</f>
+        <v/>
+      </c>
+      <c r="U23">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U23)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="23" t="inlineStr">
@@ -29523,6 +31847,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S24)+1</f>
         <v/>
       </c>
+      <c r="T24">
+        <f>S24 - U24</f>
+        <v/>
+      </c>
+      <c r="U24">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U24)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="23" t="inlineStr">
@@ -29588,6 +31920,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S25)+1</f>
         <v/>
       </c>
+      <c r="T25">
+        <f>S25 - U25</f>
+        <v/>
+      </c>
+      <c r="U25">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U25)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="inlineStr">
@@ -29653,6 +31993,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S26)+1</f>
         <v/>
       </c>
+      <c r="T26">
+        <f>S26 - U26</f>
+        <v/>
+      </c>
+      <c r="U26">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U26)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="23" t="inlineStr">
@@ -29718,6 +32066,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S27)+1</f>
         <v/>
       </c>
+      <c r="T27">
+        <f>S27 - U27</f>
+        <v/>
+      </c>
+      <c r="U27">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U27)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="inlineStr">
@@ -29783,6 +32139,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S28)+1</f>
         <v/>
       </c>
+      <c r="T28">
+        <f>S28 - U28</f>
+        <v/>
+      </c>
+      <c r="U28">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U28)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="23" t="inlineStr">
@@ -29848,6 +32212,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S29)+1</f>
         <v/>
       </c>
+      <c r="T29">
+        <f>S29 - U29</f>
+        <v/>
+      </c>
+      <c r="U29">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U29)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="inlineStr">
@@ -29913,6 +32285,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S30)+1</f>
         <v/>
       </c>
+      <c r="T30">
+        <f>S30 - U30</f>
+        <v/>
+      </c>
+      <c r="U30">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U30)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="inlineStr">
@@ -29978,6 +32358,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S31)+1</f>
         <v/>
       </c>
+      <c r="T31">
+        <f>S31 - U31</f>
+        <v/>
+      </c>
+      <c r="U31">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U31)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="23" t="inlineStr">
@@ -30043,6 +32431,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S32)+1</f>
         <v/>
       </c>
+      <c r="T32">
+        <f>S32 - U32</f>
+        <v/>
+      </c>
+      <c r="U32">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U32)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="23" t="inlineStr">
@@ -30108,6 +32504,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S33)+1</f>
         <v/>
       </c>
+      <c r="T33">
+        <f>S33 - U33</f>
+        <v/>
+      </c>
+      <c r="U33">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U33)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="inlineStr">
@@ -30173,6 +32577,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S34)+1</f>
         <v/>
       </c>
+      <c r="T34">
+        <f>S34 - U34</f>
+        <v/>
+      </c>
+      <c r="U34">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U34)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="23" t="inlineStr">
@@ -30291,6 +32703,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S36)+1</f>
         <v/>
       </c>
+      <c r="T36">
+        <f>S36 - U36</f>
+        <v/>
+      </c>
+      <c r="U36">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U36)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="inlineStr">
@@ -30466,6 +32886,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S39)+1</f>
         <v/>
       </c>
+      <c r="T39">
+        <f>S39 - U39</f>
+        <v/>
+      </c>
+      <c r="U39">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U39)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="inlineStr">
@@ -30531,6 +32959,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S40)+1</f>
         <v/>
       </c>
+      <c r="T40">
+        <f>S40 - U40</f>
+        <v/>
+      </c>
+      <c r="U40">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U40)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="41" ht="28.8" customHeight="1">
       <c r="A41" s="23" t="inlineStr">
@@ -30596,6 +33032,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S41)+1</f>
         <v/>
       </c>
+      <c r="T41">
+        <f>S41 - U41</f>
+        <v/>
+      </c>
+      <c r="U41">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U41)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="inlineStr">
@@ -30661,6 +33105,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S42)+1</f>
         <v/>
       </c>
+      <c r="T42">
+        <f>S42 - U42</f>
+        <v/>
+      </c>
+      <c r="U42">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U42)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="23" t="inlineStr">
@@ -30726,6 +33178,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S43)+1</f>
         <v/>
       </c>
+      <c r="T43">
+        <f>S43 - U43</f>
+        <v/>
+      </c>
+      <c r="U43">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U43)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="23" t="inlineStr">
@@ -30791,6 +33251,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S44)+1</f>
         <v/>
       </c>
+      <c r="T44">
+        <f>S44 - U44</f>
+        <v/>
+      </c>
+      <c r="U44">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U44)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="23" t="inlineStr">
@@ -30854,6 +33322,14 @@
       </c>
       <c r="S45">
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S45)+1</f>
+        <v/>
+      </c>
+      <c r="T45">
+        <f>S45 - U45</f>
+        <v/>
+      </c>
+      <c r="U45">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U45)+1</f>
         <v/>
       </c>
     </row>
@@ -30966,6 +33442,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S47)+1</f>
         <v/>
       </c>
+      <c r="T47">
+        <f>S47 - U47</f>
+        <v/>
+      </c>
+      <c r="U47">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U47)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="23" t="inlineStr">
@@ -31031,6 +33515,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S48)+1</f>
         <v/>
       </c>
+      <c r="T48">
+        <f>S48 - U48</f>
+        <v/>
+      </c>
+      <c r="U48">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U48)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="23" t="inlineStr">
@@ -31096,6 +33588,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S49)+1</f>
         <v/>
       </c>
+      <c r="T49">
+        <f>S49 - U49</f>
+        <v/>
+      </c>
+      <c r="U49">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U49)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="23" t="inlineStr">
@@ -31159,6 +33659,14 @@
       </c>
       <c r="S50">
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S50)+1</f>
+        <v/>
+      </c>
+      <c r="T50">
+        <f>S50 - U50</f>
+        <v/>
+      </c>
+      <c r="U50">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U50)+1</f>
         <v/>
       </c>
     </row>
@@ -31280,6 +33788,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S53)+1</f>
         <v/>
       </c>
+      <c r="T53">
+        <f>S53 - U53</f>
+        <v/>
+      </c>
+      <c r="U53">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U53)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="23" t="inlineStr">
@@ -31319,6 +33835,14 @@
       </c>
       <c r="S54">
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S54)+1</f>
+        <v/>
+      </c>
+      <c r="T54">
+        <f>S54 - U54</f>
+        <v/>
+      </c>
+      <c r="U54">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U54)+1</f>
         <v/>
       </c>
     </row>
@@ -31358,6 +33882,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S55)+1</f>
         <v/>
       </c>
+      <c r="T55">
+        <f>S55 - U55</f>
+        <v/>
+      </c>
+      <c r="U55">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U55)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="23" t="inlineStr">
@@ -31393,6 +33925,14 @@
       </c>
       <c r="S56">
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S56)+1</f>
+        <v/>
+      </c>
+      <c r="T56">
+        <f>S56 - U56</f>
+        <v/>
+      </c>
+      <c r="U56">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U56)+1</f>
         <v/>
       </c>
     </row>
@@ -31426,6 +33966,14 @@
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S57)+1</f>
         <v/>
       </c>
+      <c r="T57">
+        <f>S57 - U57</f>
+        <v/>
+      </c>
+      <c r="U57">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U57)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="23" t="inlineStr">
@@ -31455,6 +34003,14 @@
       <c r="Q58" s="11" t="n"/>
       <c r="S58">
         <f>COUNTIF(AMV!$S$2:$S$100,"&gt;"&amp;AMV!S58)+1</f>
+        <v/>
+      </c>
+      <c r="T58">
+        <f>S58 - U58</f>
+        <v/>
+      </c>
+      <c r="U58">
+        <f>COUNTIF(AMV!$U$2:$U$100,"&gt;"&amp;AMV!U58)+1</f>
         <v/>
       </c>
     </row>
@@ -32257,7 +34813,7 @@
       <c r="Q100" s="11" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S100">
+  <autoFilter ref="A1:U100">
     <sortState ref="A2:Q56">
       <sortCondition ref="A1:A56"/>
     </sortState>
@@ -33575,7 +36131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -33613,6 +36169,14 @@
       <c r="E1" s="31" t="n">
         <v>44415</v>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="G1" s="31" t="n">
+        <v>44415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
@@ -33629,10 +36193,16 @@
         <v>194251</v>
       </c>
       <c r="D2" t="n">
-        <v>-12067</v>
+        <v>-12059</v>
       </c>
       <c r="E2" t="n">
-        <v>182184</v>
+        <v>182192</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>182192</v>
       </c>
     </row>
     <row r="3">
@@ -33650,10 +36220,16 @@
         <v>161956</v>
       </c>
       <c r="D3" t="n">
-        <v>-5111</v>
+        <v>-5104</v>
       </c>
       <c r="E3" t="n">
-        <v>156845</v>
+        <v>156852</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>156852</v>
       </c>
     </row>
     <row r="4">
@@ -33671,10 +36247,16 @@
         <v>156450</v>
       </c>
       <c r="D4" t="n">
-        <v>-1753</v>
+        <v>-1751</v>
       </c>
       <c r="E4" t="n">
-        <v>154697</v>
+        <v>154699</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>154699</v>
       </c>
     </row>
     <row r="5">
@@ -33692,10 +36274,16 @@
         <v>155992</v>
       </c>
       <c r="D5" t="n">
-        <v>-19028</v>
+        <v>-19018</v>
       </c>
       <c r="E5" t="n">
-        <v>136964</v>
+        <v>136974</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>136974</v>
       </c>
     </row>
     <row r="6">
@@ -33713,10 +36301,16 @@
         <v>145866</v>
       </c>
       <c r="D6" t="n">
-        <v>-14210</v>
+        <v>-14204</v>
       </c>
       <c r="E6" t="n">
-        <v>131656</v>
+        <v>131662</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>131662</v>
       </c>
     </row>
     <row r="7">
@@ -33734,10 +36328,16 @@
         <v>139632</v>
       </c>
       <c r="D7" t="n">
-        <v>-10712</v>
+        <v>-10701</v>
       </c>
       <c r="E7" t="n">
-        <v>128920</v>
+        <v>128931</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>128931</v>
       </c>
     </row>
     <row r="8">
@@ -33755,10 +36355,16 @@
         <v>95117</v>
       </c>
       <c r="D8" t="n">
-        <v>-4773</v>
+        <v>-4770</v>
       </c>
       <c r="E8" t="n">
-        <v>90344</v>
+        <v>90347</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>90347</v>
       </c>
     </row>
     <row r="9">
@@ -33776,10 +36382,16 @@
         <v>93126</v>
       </c>
       <c r="D9" t="n">
-        <v>-12175</v>
+        <v>-12169</v>
       </c>
       <c r="E9" t="n">
-        <v>80951</v>
+        <v>80957</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>80957</v>
       </c>
     </row>
     <row r="10">
@@ -33797,10 +36409,16 @@
         <v>78250</v>
       </c>
       <c r="D10" t="n">
-        <v>-16337</v>
+        <v>-16328</v>
       </c>
       <c r="E10" t="n">
-        <v>61913</v>
+        <v>61922</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>61922</v>
       </c>
     </row>
     <row r="11">
@@ -33818,10 +36436,16 @@
         <v>76955</v>
       </c>
       <c r="D11" t="n">
-        <v>-902</v>
+        <v>-896</v>
       </c>
       <c r="E11" t="n">
-        <v>76053</v>
+        <v>76059</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>76059</v>
       </c>
     </row>
     <row r="12">
@@ -33839,10 +36463,16 @@
         <v>75805</v>
       </c>
       <c r="D12" t="n">
-        <v>-3147</v>
+        <v>-3143</v>
       </c>
       <c r="E12" t="n">
-        <v>72658</v>
+        <v>72662</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>72662</v>
       </c>
     </row>
     <row r="13">
@@ -33860,10 +36490,16 @@
         <v>74500</v>
       </c>
       <c r="D13" t="n">
-        <v>-2788</v>
+        <v>-2784</v>
       </c>
       <c r="E13" t="n">
-        <v>71712</v>
+        <v>71716</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>71716</v>
       </c>
     </row>
     <row r="14">
@@ -33881,10 +36517,16 @@
         <v>72046</v>
       </c>
       <c r="D14" t="n">
-        <v>-12975</v>
+        <v>-12973</v>
       </c>
       <c r="E14" t="n">
-        <v>59071</v>
+        <v>59073</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>59073</v>
       </c>
     </row>
     <row r="15">
@@ -33902,10 +36544,16 @@
         <v>70294</v>
       </c>
       <c r="D15" t="n">
-        <v>-3180</v>
+        <v>-3179</v>
       </c>
       <c r="E15" t="n">
-        <v>67114</v>
+        <v>67115</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>67115</v>
       </c>
     </row>
     <row r="16">
@@ -33923,10 +36571,16 @@
         <v>68527</v>
       </c>
       <c r="D16" t="n">
-        <v>-8820</v>
+        <v>-8819</v>
       </c>
       <c r="E16" t="n">
-        <v>59707</v>
+        <v>59708</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>59708</v>
       </c>
     </row>
     <row r="17">
@@ -33944,10 +36598,16 @@
         <v>68315</v>
       </c>
       <c r="D17" t="n">
-        <v>-4226</v>
+        <v>-4219</v>
       </c>
       <c r="E17" t="n">
-        <v>64089</v>
+        <v>64096</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>64096</v>
       </c>
     </row>
     <row r="18">
@@ -33965,10 +36625,16 @@
         <v>67934</v>
       </c>
       <c r="D18" t="n">
-        <v>-5879</v>
+        <v>-5876</v>
       </c>
       <c r="E18" t="n">
-        <v>62055</v>
+        <v>62058</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>62058</v>
       </c>
     </row>
     <row r="19">
@@ -33986,10 +36652,16 @@
         <v>67763</v>
       </c>
       <c r="D19" t="n">
-        <v>-2988</v>
+        <v>-2989</v>
       </c>
       <c r="E19" t="n">
-        <v>64775</v>
+        <v>64774</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>64774</v>
       </c>
     </row>
     <row r="20">
@@ -34007,10 +36679,16 @@
         <v>64114</v>
       </c>
       <c r="D20" t="n">
-        <v>-1883</v>
+        <v>-1884</v>
       </c>
       <c r="E20" t="n">
-        <v>62231</v>
+        <v>62230</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>62230</v>
       </c>
     </row>
     <row r="21">
@@ -34028,10 +36706,16 @@
         <v>63425</v>
       </c>
       <c r="D21" t="n">
-        <v>-17272</v>
+        <v>-17270</v>
       </c>
       <c r="E21" t="n">
-        <v>46153</v>
+        <v>46155</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>46155</v>
       </c>
     </row>
     <row r="22">
@@ -34049,10 +36733,16 @@
         <v>60083</v>
       </c>
       <c r="D22" t="n">
-        <v>-2165</v>
+        <v>-2164</v>
       </c>
       <c r="E22" t="n">
-        <v>57918</v>
+        <v>57919</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>57919</v>
       </c>
     </row>
     <row r="23">
@@ -34075,6 +36765,12 @@
       <c r="E23" t="n">
         <v>49731</v>
       </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>49731</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="23" t="inlineStr">
@@ -34091,10 +36787,16 @@
         <v>57239</v>
       </c>
       <c r="D24" t="n">
-        <v>-5343</v>
+        <v>-5342</v>
       </c>
       <c r="E24" t="n">
-        <v>51896</v>
+        <v>51897</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>51897</v>
       </c>
     </row>
     <row r="25">
@@ -34112,10 +36814,16 @@
         <v>57190</v>
       </c>
       <c r="D25" t="n">
-        <v>-2186</v>
+        <v>-2184</v>
       </c>
       <c r="E25" t="n">
-        <v>55004</v>
+        <v>55006</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>55006</v>
       </c>
     </row>
     <row r="26">
@@ -34133,10 +36841,16 @@
         <v>54383</v>
       </c>
       <c r="D26" t="n">
-        <v>-5597</v>
+        <v>-5595</v>
       </c>
       <c r="E26" t="n">
-        <v>48786</v>
+        <v>48788</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>48788</v>
       </c>
     </row>
     <row r="27">
@@ -34154,10 +36868,16 @@
         <v>52599</v>
       </c>
       <c r="D27" t="n">
-        <v>-2957</v>
+        <v>-2958</v>
       </c>
       <c r="E27" t="n">
-        <v>49642</v>
+        <v>49641</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>49641</v>
       </c>
     </row>
     <row r="28">
@@ -34175,10 +36895,16 @@
         <v>50496</v>
       </c>
       <c r="D28" t="n">
-        <v>-1308</v>
+        <v>-1304</v>
       </c>
       <c r="E28" t="n">
-        <v>49188</v>
+        <v>49192</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>49192</v>
       </c>
     </row>
     <row r="29">
@@ -34201,6 +36927,12 @@
       <c r="E29" t="n">
         <v>44983</v>
       </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>44983</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="inlineStr">
@@ -34217,10 +36949,16 @@
         <v>48976</v>
       </c>
       <c r="D30" t="n">
-        <v>-6879</v>
+        <v>-6875</v>
       </c>
       <c r="E30" t="n">
-        <v>42097</v>
+        <v>42101</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>42101</v>
       </c>
     </row>
     <row r="31">
@@ -34238,10 +36976,16 @@
         <v>48036</v>
       </c>
       <c r="D31" t="n">
-        <v>-6856</v>
+        <v>-6857</v>
       </c>
       <c r="E31" t="n">
-        <v>41180</v>
+        <v>41179</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>41179</v>
       </c>
     </row>
     <row r="32">
@@ -34259,10 +37003,16 @@
         <v>47915</v>
       </c>
       <c r="D32" t="n">
-        <v>-5806</v>
+        <v>-5802</v>
       </c>
       <c r="E32" t="n">
-        <v>42109</v>
+        <v>42113</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>42113</v>
       </c>
     </row>
     <row r="33">
@@ -34280,10 +37030,16 @@
         <v>47567</v>
       </c>
       <c r="D33" t="n">
-        <v>-3456</v>
+        <v>-3454</v>
       </c>
       <c r="E33" t="n">
-        <v>44111</v>
+        <v>44113</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>44113</v>
       </c>
     </row>
     <row r="34">
@@ -34301,10 +37057,16 @@
         <v>47193</v>
       </c>
       <c r="D34" t="n">
-        <v>-3477</v>
+        <v>-3476</v>
       </c>
       <c r="E34" t="n">
-        <v>43716</v>
+        <v>43717</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>43717</v>
       </c>
     </row>
     <row r="35">
@@ -34322,10 +37084,16 @@
         <v>45617</v>
       </c>
       <c r="D35" t="n">
-        <v>4103</v>
+        <v>4108</v>
       </c>
       <c r="E35" t="n">
-        <v>49720</v>
+        <v>49725</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>49725</v>
       </c>
     </row>
     <row r="36">
@@ -34343,10 +37111,16 @@
         <v>43189</v>
       </c>
       <c r="D36" t="n">
-        <v>-520</v>
+        <v>-518</v>
       </c>
       <c r="E36" t="n">
-        <v>42669</v>
+        <v>42671</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>42671</v>
       </c>
     </row>
     <row r="37">
@@ -34364,10 +37138,16 @@
         <v>40092</v>
       </c>
       <c r="D37" t="n">
-        <v>-1266</v>
+        <v>-1263</v>
       </c>
       <c r="E37" t="n">
-        <v>38826</v>
+        <v>38829</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>38829</v>
       </c>
     </row>
     <row r="38">
@@ -34385,10 +37165,16 @@
         <v>39409</v>
       </c>
       <c r="D38" t="n">
-        <v>1420</v>
+        <v>1426</v>
       </c>
       <c r="E38" t="n">
-        <v>40829</v>
+        <v>40835</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>40835</v>
       </c>
     </row>
     <row r="39" ht="28.8" customHeight="1">
@@ -34406,10 +37192,16 @@
         <v>37588</v>
       </c>
       <c r="D39" t="n">
-        <v>-1669</v>
+        <v>-1668</v>
       </c>
       <c r="E39" t="n">
-        <v>35919</v>
+        <v>35920</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>35920</v>
       </c>
     </row>
     <row r="40">
@@ -34427,10 +37219,16 @@
         <v>36683</v>
       </c>
       <c r="D40" t="n">
-        <v>-3317</v>
+        <v>-3316</v>
       </c>
       <c r="E40" t="n">
-        <v>33366</v>
+        <v>33367</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>33367</v>
       </c>
     </row>
     <row r="41">
@@ -34448,10 +37246,16 @@
         <v>36165</v>
       </c>
       <c r="D41" t="n">
-        <v>-3530</v>
+        <v>-3529</v>
       </c>
       <c r="E41" t="n">
-        <v>32635</v>
+        <v>32636</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>32636</v>
       </c>
     </row>
     <row r="42">
@@ -34469,10 +37273,16 @@
         <v>34465</v>
       </c>
       <c r="D42" t="n">
-        <v>-4954</v>
+        <v>-4951</v>
       </c>
       <c r="E42" t="n">
-        <v>29511</v>
+        <v>29514</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>29514</v>
       </c>
     </row>
     <row r="43" ht="28.8" customHeight="1">
@@ -34495,6 +37305,12 @@
       <c r="E43" t="n">
         <v>34750</v>
       </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>34750</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="23" t="inlineStr">
@@ -34511,10 +37327,16 @@
         <v>33808</v>
       </c>
       <c r="D44" t="n">
-        <v>-4728</v>
+        <v>-4727</v>
       </c>
       <c r="E44" t="n">
-        <v>29080</v>
+        <v>29081</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>29081</v>
       </c>
     </row>
     <row r="45">
@@ -34537,6 +37359,12 @@
       <c r="E45" t="n">
         <v>28468</v>
       </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>28468</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="23" t="inlineStr">
@@ -34553,10 +37381,16 @@
         <v>32263</v>
       </c>
       <c r="D46" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E46" t="n">
-        <v>32288</v>
+        <v>32290</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>32290</v>
       </c>
     </row>
     <row r="47">
@@ -34574,10 +37408,16 @@
         <v>32012</v>
       </c>
       <c r="D47" t="n">
-        <v>-1389</v>
+        <v>-1386</v>
       </c>
       <c r="E47" t="n">
-        <v>30623</v>
+        <v>30626</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>30626</v>
       </c>
     </row>
     <row r="48" ht="28.8" customHeight="1">
@@ -34595,10 +37435,16 @@
         <v>31591</v>
       </c>
       <c r="D48" t="n">
-        <v>-1849</v>
+        <v>-1848</v>
       </c>
       <c r="E48" t="n">
-        <v>29742</v>
+        <v>29743</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>29743</v>
       </c>
     </row>
     <row r="49">
@@ -34616,10 +37462,16 @@
         <v>31457</v>
       </c>
       <c r="D49" t="n">
-        <v>-1543</v>
+        <v>-1539</v>
       </c>
       <c r="E49" t="n">
-        <v>29914</v>
+        <v>29918</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>29918</v>
       </c>
     </row>
     <row r="50">
@@ -34642,6 +37494,12 @@
       <c r="E50" t="n">
         <v>29451</v>
       </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29451</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="23" t="inlineStr">
@@ -34658,10 +37516,16 @@
         <v>30864</v>
       </c>
       <c r="D51" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E51" t="n">
-        <v>31186</v>
+        <v>31187</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>31187</v>
       </c>
     </row>
     <row r="52">
@@ -34910,7 +37774,7 @@
       <c r="C100" s="11" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E100">
+  <autoFilter ref="A1:G100">
     <sortState ref="A2:C56">
       <sortCondition ref="A1:A56"/>
     </sortState>
@@ -35031,7 +37895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -35069,6 +37933,14 @@
       <c r="E1" s="31" t="n">
         <v>44415</v>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="G1" s="31" t="n">
+        <v>44415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
@@ -35093,6 +37965,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E2)+1</f>
         <v/>
       </c>
+      <c r="F2">
+        <f>E2 - G2</f>
+        <v/>
+      </c>
+      <c r="G2">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G2)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -35116,6 +37996,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E3)+1</f>
         <v/>
       </c>
+      <c r="F3">
+        <f>E3 - G3</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G3)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -35139,6 +38027,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E4)+1</f>
         <v/>
       </c>
+      <c r="F4">
+        <f>E4 - G4</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G4)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -35162,6 +38058,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E5)+1</f>
         <v/>
       </c>
+      <c r="F5">
+        <f>E5 - G5</f>
+        <v/>
+      </c>
+      <c r="G5">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G5)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -35185,6 +38089,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E6)+1</f>
         <v/>
       </c>
+      <c r="F6">
+        <f>E6 - G6</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G6)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -35208,6 +38120,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E7)+1</f>
         <v/>
       </c>
+      <c r="F7">
+        <f>E7 - G7</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G7)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -35231,6 +38151,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E8)+1</f>
         <v/>
       </c>
+      <c r="F8">
+        <f>E8 - G8</f>
+        <v/>
+      </c>
+      <c r="G8">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G8)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
@@ -35254,6 +38182,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E9)+1</f>
         <v/>
       </c>
+      <c r="F9">
+        <f>E9 - G9</f>
+        <v/>
+      </c>
+      <c r="G9">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G9)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
@@ -35277,6 +38213,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E10)+1</f>
         <v/>
       </c>
+      <c r="F10">
+        <f>E10 - G10</f>
+        <v/>
+      </c>
+      <c r="G10">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G10)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -35300,6 +38244,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E11)+1</f>
         <v/>
       </c>
+      <c r="F11">
+        <f>E11 - G11</f>
+        <v/>
+      </c>
+      <c r="G11">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G11)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="inlineStr">
@@ -35323,6 +38275,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E12)+1</f>
         <v/>
       </c>
+      <c r="F12">
+        <f>E12 - G12</f>
+        <v/>
+      </c>
+      <c r="G12">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G12)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="inlineStr">
@@ -35346,6 +38306,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E13)+1</f>
         <v/>
       </c>
+      <c r="F13">
+        <f>E13 - G13</f>
+        <v/>
+      </c>
+      <c r="G13">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G13)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="inlineStr">
@@ -35369,6 +38337,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E14)+1</f>
         <v/>
       </c>
+      <c r="F14">
+        <f>E14 - G14</f>
+        <v/>
+      </c>
+      <c r="G14">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G14)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="23" t="inlineStr">
@@ -35392,6 +38368,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E15)+1</f>
         <v/>
       </c>
+      <c r="F15">
+        <f>E15 - G15</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G15)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="23" t="inlineStr">
@@ -35415,6 +38399,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E16)+1</f>
         <v/>
       </c>
+      <c r="F16">
+        <f>E16 - G16</f>
+        <v/>
+      </c>
+      <c r="G16">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G16)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -35438,6 +38430,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E17)+1</f>
         <v/>
       </c>
+      <c r="F17">
+        <f>E17 - G17</f>
+        <v/>
+      </c>
+      <c r="G17">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G17)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -35461,6 +38461,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E18)+1</f>
         <v/>
       </c>
+      <c r="F18">
+        <f>E18 - G18</f>
+        <v/>
+      </c>
+      <c r="G18">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G18)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -35484,6 +38492,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E19)+1</f>
         <v/>
       </c>
+      <c r="F19">
+        <f>E19 - G19</f>
+        <v/>
+      </c>
+      <c r="G19">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G19)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="inlineStr">
@@ -35507,6 +38523,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E20)+1</f>
         <v/>
       </c>
+      <c r="F20">
+        <f>E20 - G20</f>
+        <v/>
+      </c>
+      <c r="G20">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G20)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="23" t="inlineStr">
@@ -35530,6 +38554,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E21)+1</f>
         <v/>
       </c>
+      <c r="F21">
+        <f>E21 - G21</f>
+        <v/>
+      </c>
+      <c r="G21">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G21)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="23" t="inlineStr">
@@ -35553,6 +38585,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E22)+1</f>
         <v/>
       </c>
+      <c r="F22">
+        <f>E22 - G22</f>
+        <v/>
+      </c>
+      <c r="G22">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G22)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="23" t="inlineStr">
@@ -35576,6 +38616,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E23)+1</f>
         <v/>
       </c>
+      <c r="F23">
+        <f>E23 - G23</f>
+        <v/>
+      </c>
+      <c r="G23">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G23)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="23" t="inlineStr">
@@ -35599,6 +38647,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E24)+1</f>
         <v/>
       </c>
+      <c r="F24">
+        <f>E24 - G24</f>
+        <v/>
+      </c>
+      <c r="G24">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G24)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="23" t="inlineStr">
@@ -35622,6 +38678,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E25)+1</f>
         <v/>
       </c>
+      <c r="F25">
+        <f>E25 - G25</f>
+        <v/>
+      </c>
+      <c r="G25">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G25)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="inlineStr">
@@ -35645,6 +38709,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E26)+1</f>
         <v/>
       </c>
+      <c r="F26">
+        <f>E26 - G26</f>
+        <v/>
+      </c>
+      <c r="G26">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G26)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="23" t="inlineStr">
@@ -35668,6 +38740,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E27)+1</f>
         <v/>
       </c>
+      <c r="F27">
+        <f>E27 - G27</f>
+        <v/>
+      </c>
+      <c r="G27">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G27)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="inlineStr">
@@ -35691,6 +38771,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E28)+1</f>
         <v/>
       </c>
+      <c r="F28">
+        <f>E28 - G28</f>
+        <v/>
+      </c>
+      <c r="G28">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G28)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="23" t="inlineStr">
@@ -35714,6 +38802,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E29)+1</f>
         <v/>
       </c>
+      <c r="F29">
+        <f>E29 - G29</f>
+        <v/>
+      </c>
+      <c r="G29">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G29)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="inlineStr">
@@ -35737,6 +38833,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E30)+1</f>
         <v/>
       </c>
+      <c r="F30">
+        <f>E30 - G30</f>
+        <v/>
+      </c>
+      <c r="G30">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G30)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="inlineStr">
@@ -35760,6 +38864,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E31)+1</f>
         <v/>
       </c>
+      <c r="F31">
+        <f>E31 - G31</f>
+        <v/>
+      </c>
+      <c r="G31">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G31)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="23" t="inlineStr">
@@ -35783,6 +38895,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E32)+1</f>
         <v/>
       </c>
+      <c r="F32">
+        <f>E32 - G32</f>
+        <v/>
+      </c>
+      <c r="G32">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G32)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="23" t="inlineStr">
@@ -35806,6 +38926,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E33)+1</f>
         <v/>
       </c>
+      <c r="F33">
+        <f>E33 - G33</f>
+        <v/>
+      </c>
+      <c r="G33">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G33)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="inlineStr">
@@ -35829,6 +38957,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E34)+1</f>
         <v/>
       </c>
+      <c r="F34">
+        <f>E34 - G34</f>
+        <v/>
+      </c>
+      <c r="G34">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G34)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="23" t="inlineStr">
@@ -35852,6 +38988,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E35)+1</f>
         <v/>
       </c>
+      <c r="F35">
+        <f>E35 - G35</f>
+        <v/>
+      </c>
+      <c r="G35">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G35)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="23" t="inlineStr">
@@ -35875,6 +39019,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E36)+1</f>
         <v/>
       </c>
+      <c r="F36">
+        <f>E36 - G36</f>
+        <v/>
+      </c>
+      <c r="G36">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G36)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="inlineStr">
@@ -35898,6 +39050,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E37)+1</f>
         <v/>
       </c>
+      <c r="F37">
+        <f>E37 - G37</f>
+        <v/>
+      </c>
+      <c r="G37">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G37)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="23" t="inlineStr">
@@ -35921,6 +39081,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E38)+1</f>
         <v/>
       </c>
+      <c r="F38">
+        <f>E38 - G38</f>
+        <v/>
+      </c>
+      <c r="G38">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G38)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="39" ht="28.8" customHeight="1">
       <c r="A39" s="23" t="inlineStr">
@@ -35944,6 +39112,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E39)+1</f>
         <v/>
       </c>
+      <c r="F39">
+        <f>E39 - G39</f>
+        <v/>
+      </c>
+      <c r="G39">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G39)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="inlineStr">
@@ -35967,6 +39143,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E40)+1</f>
         <v/>
       </c>
+      <c r="F40">
+        <f>E40 - G40</f>
+        <v/>
+      </c>
+      <c r="G40">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G40)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="23" t="inlineStr">
@@ -35990,6 +39174,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E41)+1</f>
         <v/>
       </c>
+      <c r="F41">
+        <f>E41 - G41</f>
+        <v/>
+      </c>
+      <c r="G41">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G41)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="inlineStr">
@@ -36013,6 +39205,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E42)+1</f>
         <v/>
       </c>
+      <c r="F42">
+        <f>E42 - G42</f>
+        <v/>
+      </c>
+      <c r="G42">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G42)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="43" ht="28.8" customHeight="1">
       <c r="A43" s="23" t="inlineStr">
@@ -36036,6 +39236,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E43)+1</f>
         <v/>
       </c>
+      <c r="F43">
+        <f>E43 - G43</f>
+        <v/>
+      </c>
+      <c r="G43">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G43)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="23" t="inlineStr">
@@ -36059,6 +39267,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E44)+1</f>
         <v/>
       </c>
+      <c r="F44">
+        <f>E44 - G44</f>
+        <v/>
+      </c>
+      <c r="G44">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G44)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="23" t="inlineStr">
@@ -36082,6 +39298,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E45)+1</f>
         <v/>
       </c>
+      <c r="F45">
+        <f>E45 - G45</f>
+        <v/>
+      </c>
+      <c r="G45">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G45)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="23" t="inlineStr">
@@ -36105,6 +39329,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E46)+1</f>
         <v/>
       </c>
+      <c r="F46">
+        <f>E46 - G46</f>
+        <v/>
+      </c>
+      <c r="G46">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G46)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="23" t="inlineStr">
@@ -36128,6 +39360,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E47)+1</f>
         <v/>
       </c>
+      <c r="F47">
+        <f>E47 - G47</f>
+        <v/>
+      </c>
+      <c r="G47">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G47)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="48" ht="28.8" customHeight="1">
       <c r="A48" s="23" t="inlineStr">
@@ -36151,6 +39391,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E48)+1</f>
         <v/>
       </c>
+      <c r="F48">
+        <f>E48 - G48</f>
+        <v/>
+      </c>
+      <c r="G48">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G48)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="23" t="inlineStr">
@@ -36174,6 +39422,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E49)+1</f>
         <v/>
       </c>
+      <c r="F49">
+        <f>E49 - G49</f>
+        <v/>
+      </c>
+      <c r="G49">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G49)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="23" t="inlineStr">
@@ -36197,6 +39453,14 @@
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E50)+1</f>
         <v/>
       </c>
+      <c r="F50">
+        <f>E50 - G50</f>
+        <v/>
+      </c>
+      <c r="G50">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G50)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="23" t="inlineStr">
@@ -36218,6 +39482,14 @@
       </c>
       <c r="E51">
         <f>COUNTIF(AFV!$E$2:$E$100,"&gt;"&amp;AFV!E51)+1</f>
+        <v/>
+      </c>
+      <c r="F51">
+        <f>E51 - G51</f>
+        <v/>
+      </c>
+      <c r="G51">
+        <f>COUNTIF(AFV!$G$2:$G$100,"&gt;"&amp;AFV!G51)+1</f>
         <v/>
       </c>
     </row>
@@ -36467,7 +39739,7 @@
       <c r="C100" s="11" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E100">
+  <autoFilter ref="A1:G100">
     <sortState ref="A2:C56">
       <sortCondition ref="A1:A56"/>
     </sortState>
@@ -36600,7 +39872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q132"/>
+  <dimension ref="A1:S132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -36698,6 +39970,14 @@
       <c r="Q1" s="31" t="n">
         <v>44415</v>
       </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="S1" s="31" t="n">
+        <v>44415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
@@ -36756,6 +40036,12 @@
       <c r="Q2" t="n">
         <v>9.390000000000001</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>9.390000000000001</v>
+      </c>
     </row>
     <row r="3" ht="28.8" customHeight="1">
       <c r="A3" s="23" t="inlineStr">
@@ -36813,6 +40099,12 @@
       <c r="Q3" t="n">
         <v>9.23</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9.23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -36870,6 +40162,12 @@
       <c r="Q4" t="n">
         <v>9.08</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>9.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -36927,6 +40225,12 @@
       <c r="Q5" t="n">
         <v>9.15</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>9.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -36984,6 +40288,12 @@
       <c r="Q6" t="n">
         <v>9.1</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -37041,6 +40351,12 @@
       <c r="Q7" t="n">
         <v>9.130000000000001</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>9.130000000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -37098,6 +40414,12 @@
       <c r="Q8" t="n">
         <v>9.050000000000001</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9.050000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
@@ -37155,6 +40477,12 @@
       <c r="Q9" t="n">
         <v>9.039999999999999</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>9.039999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
@@ -37212,6 +40540,12 @@
       <c r="Q10" t="n">
         <v>9.02</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>9.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -37269,6 +40603,12 @@
       <c r="Q11" t="n">
         <v>8.98</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="12" ht="28.8" customHeight="1">
       <c r="A12" s="23" t="inlineStr">
@@ -37326,6 +40666,12 @@
       <c r="Q12" t="n">
         <v>8.94</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8.94</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="inlineStr">
@@ -37383,6 +40729,12 @@
       <c r="Q13" t="n">
         <v>8.94</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8.94</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="inlineStr">
@@ -37440,6 +40792,12 @@
       <c r="Q14" t="n">
         <v>8.85</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="23" t="inlineStr">
@@ -37497,6 +40855,12 @@
       <c r="Q15" t="n">
         <v>8.960000000000001</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8.960000000000001</v>
+      </c>
     </row>
     <row r="16" ht="28.8" customHeight="1">
       <c r="A16" s="23" t="inlineStr">
@@ -37554,6 +40918,12 @@
       <c r="Q16" t="n">
         <v>8.84</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>8.84</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -37611,6 +40981,12 @@
       <c r="Q17" t="n">
         <v>8.91</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>8.91</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -37668,6 +41044,12 @@
       <c r="Q18" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>8.859999999999999</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -37725,6 +41107,12 @@
       <c r="Q19" t="n">
         <v>8.9</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="inlineStr">
@@ -37782,6 +41170,12 @@
       <c r="Q20" t="n">
         <v>8.82</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>8.82</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="23" t="inlineStr">
@@ -37839,6 +41233,12 @@
       <c r="Q21" t="n">
         <v>8.9</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="23" t="inlineStr">
@@ -37896,6 +41296,12 @@
       <c r="Q22" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>8.859999999999999</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="23" t="inlineStr">
@@ -37953,6 +41359,12 @@
       <c r="Q23" t="n">
         <v>8.949999999999999</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>8.949999999999999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="23" t="inlineStr">
@@ -38010,6 +41422,12 @@
       <c r="Q24" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>8.859999999999999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="23" t="inlineStr">
@@ -38067,6 +41485,12 @@
       <c r="Q25" t="n">
         <v>8.92</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>8.92</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="inlineStr">
@@ -38124,6 +41548,12 @@
       <c r="Q26" t="n">
         <v>8.84</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>8.84</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="23" t="inlineStr">
@@ -38181,6 +41611,12 @@
       <c r="Q27" t="n">
         <v>8.83</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="inlineStr">
@@ -38238,6 +41674,12 @@
       <c r="Q28" t="n">
         <v>8.9</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="23" t="inlineStr">
@@ -38295,6 +41737,12 @@
       <c r="Q29" t="n">
         <v>8.779999999999999</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>8.779999999999999</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="inlineStr">
@@ -38352,6 +41800,12 @@
       <c r="Q30" t="n">
         <v>8.83</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8.83</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="inlineStr">
@@ -38409,6 +41863,12 @@
       <c r="Q31" t="n">
         <v>8.800000000000001</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>8.800000000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="23" t="inlineStr">
@@ -38466,6 +41926,12 @@
       <c r="Q32" t="n">
         <v>8.880000000000001</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>8.880000000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="23" t="inlineStr">
@@ -38523,6 +41989,12 @@
       <c r="Q33" t="n">
         <v>8.75</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>8.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="inlineStr">
@@ -38580,6 +42052,12 @@
       <c r="Q34" t="n">
         <v>8.73</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>8.73</v>
+      </c>
     </row>
     <row r="35" ht="28.8" customHeight="1">
       <c r="A35" s="23" t="inlineStr">
@@ -38637,6 +42115,12 @@
       <c r="Q35" t="n">
         <v>8.789999999999999</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>8.789999999999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="23" t="inlineStr">
@@ -38694,6 +42178,12 @@
       <c r="Q36" t="n">
         <v>8.720000000000001</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>8.720000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="inlineStr">
@@ -38751,6 +42241,12 @@
       <c r="Q37" t="n">
         <v>8.720000000000001</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>8.720000000000001</v>
+      </c>
     </row>
     <row r="38" ht="28.8" customHeight="1">
       <c r="A38" s="23" t="inlineStr">
@@ -38808,6 +42304,12 @@
       <c r="Q38" t="n">
         <v>8.82</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>8.82</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="23" t="inlineStr">
@@ -38865,6 +42367,12 @@
       <c r="Q39" t="n">
         <v>8.720000000000001</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>8.720000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="inlineStr">
@@ -38922,6 +42430,12 @@
       <c r="Q40" t="n">
         <v>8.82</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>8.82</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="23" t="inlineStr">
@@ -38979,6 +42493,12 @@
       <c r="Q41" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>8.699999999999999</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="inlineStr">
@@ -39036,6 +42556,12 @@
       <c r="Q42" t="n">
         <v>8.73</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>8.73</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="23" t="inlineStr">
@@ -39142,6 +42668,12 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>8.68</v>
       </c>
     </row>
@@ -39293,6 +42825,12 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
         <v>8.68</v>
       </c>
     </row>
@@ -39552,6 +43090,12 @@
       <c r="Q54" t="n">
         <v>8.779999999999999</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>8.779999999999999</v>
+      </c>
     </row>
     <row r="55" ht="43.2" customHeight="1">
       <c r="A55" s="23" t="inlineStr">
@@ -39591,6 +43135,12 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
         <v>8.74</v>
       </c>
     </row>
@@ -39628,6 +43178,12 @@
         <v>-0.04000000000000092</v>
       </c>
       <c r="Q56" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
         <v>8.85</v>
       </c>
     </row>
@@ -39688,6 +43244,12 @@
         <v>-0.01999999999999957</v>
       </c>
       <c r="Q58" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
         <v>8.75</v>
       </c>
     </row>
@@ -39718,6 +43280,12 @@
       <c r="Q59" t="n">
         <v>8.74</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>8.74</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="23" t="inlineStr">
@@ -39746,6 +43314,12 @@
       <c r="Q60" t="n">
         <v>8.710000000000001</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>8.710000000000001</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="23" t="inlineStr">
@@ -39772,6 +43346,12 @@
       <c r="N61" s="32" t="n"/>
       <c r="O61" s="32" t="n"/>
       <c r="Q61" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
         <v>8.68</v>
       </c>
     </row>
@@ -40442,7 +44022,7 @@
       <c r="D132" s="28" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q132">
+  <autoFilter ref="A1:S132">
     <sortState ref="A2:O58">
       <sortCondition ref="A1:A58"/>
     </sortState>
@@ -43202,7 +46782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -43300,6 +46880,14 @@
       <c r="Q1" s="31" t="n">
         <v>44415</v>
       </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="S1" s="31" t="n">
+        <v>44415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
@@ -43361,6 +46949,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q2)+1</f>
         <v/>
       </c>
+      <c r="R2">
+        <f>Q2 - S2</f>
+        <v/>
+      </c>
+      <c r="S2">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S2)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="28.8" customHeight="1">
       <c r="A3" s="23" t="inlineStr">
@@ -43420,6 +47016,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q3)+1</f>
         <v/>
       </c>
+      <c r="R3">
+        <f>Q3 - S3</f>
+        <v/>
+      </c>
+      <c r="S3">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S3)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -43479,6 +47083,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q4)+1</f>
         <v/>
       </c>
+      <c r="R4">
+        <f>Q4 - S4</f>
+        <v/>
+      </c>
+      <c r="S4">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S4)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -43538,6 +47150,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q5)+1</f>
         <v/>
       </c>
+      <c r="R5">
+        <f>Q5 - S5</f>
+        <v/>
+      </c>
+      <c r="S5">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S5)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -43597,6 +47217,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q6)+1</f>
         <v/>
       </c>
+      <c r="R6">
+        <f>Q6 - S6</f>
+        <v/>
+      </c>
+      <c r="S6">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S6)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -43656,6 +47284,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q7)+1</f>
         <v/>
       </c>
+      <c r="R7">
+        <f>Q7 - S7</f>
+        <v/>
+      </c>
+      <c r="S7">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S7)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -43715,6 +47351,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q8)+1</f>
         <v/>
       </c>
+      <c r="R8">
+        <f>Q8 - S8</f>
+        <v/>
+      </c>
+      <c r="S8">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S8)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
@@ -43774,6 +47418,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q9)+1</f>
         <v/>
       </c>
+      <c r="R9">
+        <f>Q9 - S9</f>
+        <v/>
+      </c>
+      <c r="S9">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S9)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
@@ -43833,6 +47485,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q10)+1</f>
         <v/>
       </c>
+      <c r="R10">
+        <f>Q10 - S10</f>
+        <v/>
+      </c>
+      <c r="S10">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S10)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -43892,6 +47552,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q11)+1</f>
         <v/>
       </c>
+      <c r="R11">
+        <f>Q11 - S11</f>
+        <v/>
+      </c>
+      <c r="S11">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S11)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="12" ht="28.8" customHeight="1">
       <c r="A12" s="23" t="inlineStr">
@@ -43951,6 +47619,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q12)+1</f>
         <v/>
       </c>
+      <c r="R12">
+        <f>Q12 - S12</f>
+        <v/>
+      </c>
+      <c r="S12">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S12)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="inlineStr">
@@ -44010,6 +47686,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q13)+1</f>
         <v/>
       </c>
+      <c r="R13">
+        <f>Q13 - S13</f>
+        <v/>
+      </c>
+      <c r="S13">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S13)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="inlineStr">
@@ -44069,6 +47753,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q14)+1</f>
         <v/>
       </c>
+      <c r="R14">
+        <f>Q14 - S14</f>
+        <v/>
+      </c>
+      <c r="S14">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S14)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="23" t="inlineStr">
@@ -44128,6 +47820,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q15)+1</f>
         <v/>
       </c>
+      <c r="R15">
+        <f>Q15 - S15</f>
+        <v/>
+      </c>
+      <c r="S15">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S15)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="16" ht="28.8" customHeight="1">
       <c r="A16" s="23" t="inlineStr">
@@ -44187,6 +47887,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q16)+1</f>
         <v/>
       </c>
+      <c r="R16">
+        <f>Q16 - S16</f>
+        <v/>
+      </c>
+      <c r="S16">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S16)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -44246,6 +47954,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q17)+1</f>
         <v/>
       </c>
+      <c r="R17">
+        <f>Q17 - S17</f>
+        <v/>
+      </c>
+      <c r="S17">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S17)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -44305,6 +48021,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q18)+1</f>
         <v/>
       </c>
+      <c r="R18">
+        <f>Q18 - S18</f>
+        <v/>
+      </c>
+      <c r="S18">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S18)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -44364,6 +48088,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q19)+1</f>
         <v/>
       </c>
+      <c r="R19">
+        <f>Q19 - S19</f>
+        <v/>
+      </c>
+      <c r="S19">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S19)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="inlineStr">
@@ -44423,6 +48155,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q20)+1</f>
         <v/>
       </c>
+      <c r="R20">
+        <f>Q20 - S20</f>
+        <v/>
+      </c>
+      <c r="S20">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S20)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="23" t="inlineStr">
@@ -44482,6 +48222,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q21)+1</f>
         <v/>
       </c>
+      <c r="R21">
+        <f>Q21 - S21</f>
+        <v/>
+      </c>
+      <c r="S21">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S21)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="23" t="inlineStr">
@@ -44541,6 +48289,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q22)+1</f>
         <v/>
       </c>
+      <c r="R22">
+        <f>Q22 - S22</f>
+        <v/>
+      </c>
+      <c r="S22">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S22)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="23" t="inlineStr">
@@ -44600,6 +48356,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q23)+1</f>
         <v/>
       </c>
+      <c r="R23">
+        <f>Q23 - S23</f>
+        <v/>
+      </c>
+      <c r="S23">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S23)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="23" t="inlineStr">
@@ -44659,6 +48423,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q24)+1</f>
         <v/>
       </c>
+      <c r="R24">
+        <f>Q24 - S24</f>
+        <v/>
+      </c>
+      <c r="S24">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S24)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="23" t="inlineStr">
@@ -44718,6 +48490,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q25)+1</f>
         <v/>
       </c>
+      <c r="R25">
+        <f>Q25 - S25</f>
+        <v/>
+      </c>
+      <c r="S25">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S25)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="inlineStr">
@@ -44777,6 +48557,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q26)+1</f>
         <v/>
       </c>
+      <c r="R26">
+        <f>Q26 - S26</f>
+        <v/>
+      </c>
+      <c r="S26">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S26)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="23" t="inlineStr">
@@ -44836,6 +48624,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q27)+1</f>
         <v/>
       </c>
+      <c r="R27">
+        <f>Q27 - S27</f>
+        <v/>
+      </c>
+      <c r="S27">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S27)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="inlineStr">
@@ -44895,6 +48691,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q28)+1</f>
         <v/>
       </c>
+      <c r="R28">
+        <f>Q28 - S28</f>
+        <v/>
+      </c>
+      <c r="S28">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S28)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="23" t="inlineStr">
@@ -44954,6 +48758,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q29)+1</f>
         <v/>
       </c>
+      <c r="R29">
+        <f>Q29 - S29</f>
+        <v/>
+      </c>
+      <c r="S29">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S29)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="inlineStr">
@@ -45013,6 +48825,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q30)+1</f>
         <v/>
       </c>
+      <c r="R30">
+        <f>Q30 - S30</f>
+        <v/>
+      </c>
+      <c r="S30">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S30)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="inlineStr">
@@ -45072,6 +48892,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q31)+1</f>
         <v/>
       </c>
+      <c r="R31">
+        <f>Q31 - S31</f>
+        <v/>
+      </c>
+      <c r="S31">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S31)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="23" t="inlineStr">
@@ -45131,6 +48959,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q32)+1</f>
         <v/>
       </c>
+      <c r="R32">
+        <f>Q32 - S32</f>
+        <v/>
+      </c>
+      <c r="S32">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S32)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="23" t="inlineStr">
@@ -45190,6 +49026,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q33)+1</f>
         <v/>
       </c>
+      <c r="R33">
+        <f>Q33 - S33</f>
+        <v/>
+      </c>
+      <c r="S33">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S33)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="inlineStr">
@@ -45249,6 +49093,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q34)+1</f>
         <v/>
       </c>
+      <c r="R34">
+        <f>Q34 - S34</f>
+        <v/>
+      </c>
+      <c r="S34">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S34)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="35" ht="28.8" customHeight="1">
       <c r="A35" s="23" t="inlineStr">
@@ -45308,6 +49160,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q35)+1</f>
         <v/>
       </c>
+      <c r="R35">
+        <f>Q35 - S35</f>
+        <v/>
+      </c>
+      <c r="S35">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S35)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="23" t="inlineStr">
@@ -45367,6 +49227,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q36)+1</f>
         <v/>
       </c>
+      <c r="R36">
+        <f>Q36 - S36</f>
+        <v/>
+      </c>
+      <c r="S36">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S36)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="inlineStr">
@@ -45426,6 +49294,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q37)+1</f>
         <v/>
       </c>
+      <c r="R37">
+        <f>Q37 - S37</f>
+        <v/>
+      </c>
+      <c r="S37">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S37)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="38" ht="28.8" customHeight="1">
       <c r="A38" s="23" t="inlineStr">
@@ -45485,6 +49361,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q38)+1</f>
         <v/>
       </c>
+      <c r="R38">
+        <f>Q38 - S38</f>
+        <v/>
+      </c>
+      <c r="S38">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S38)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="23" t="inlineStr">
@@ -45544,6 +49428,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q39)+1</f>
         <v/>
       </c>
+      <c r="R39">
+        <f>Q39 - S39</f>
+        <v/>
+      </c>
+      <c r="S39">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S39)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="inlineStr">
@@ -45603,6 +49495,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q40)+1</f>
         <v/>
       </c>
+      <c r="R40">
+        <f>Q40 - S40</f>
+        <v/>
+      </c>
+      <c r="S40">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S40)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="23" t="inlineStr">
@@ -45662,6 +49562,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q41)+1</f>
         <v/>
       </c>
+      <c r="R41">
+        <f>Q41 - S41</f>
+        <v/>
+      </c>
+      <c r="S41">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S41)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="inlineStr">
@@ -45721,6 +49629,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q42)+1</f>
         <v/>
       </c>
+      <c r="R42">
+        <f>Q42 - S42</f>
+        <v/>
+      </c>
+      <c r="S42">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S42)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="23" t="inlineStr">
@@ -45829,6 +49745,14 @@
       </c>
       <c r="Q44">
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q44)+1</f>
+        <v/>
+      </c>
+      <c r="R44">
+        <f>Q44 - S44</f>
+        <v/>
+      </c>
+      <c r="S44">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S44)+1</f>
         <v/>
       </c>
     </row>
@@ -45982,6 +49906,14 @@
       </c>
       <c r="Q47">
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q47)+1</f>
+        <v/>
+      </c>
+      <c r="R47">
+        <f>Q47 - S47</f>
+        <v/>
+      </c>
+      <c r="S47">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S47)+1</f>
         <v/>
       </c>
     </row>
@@ -46243,6 +50175,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q54)+1</f>
         <v/>
       </c>
+      <c r="R54">
+        <f>Q54 - S54</f>
+        <v/>
+      </c>
+      <c r="S54">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S54)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="55" ht="43.2" customHeight="1">
       <c r="A55" s="23" t="inlineStr">
@@ -46284,6 +50224,14 @@
       </c>
       <c r="Q55">
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q55)+1</f>
+        <v/>
+      </c>
+      <c r="R55">
+        <f>Q55 - S55</f>
+        <v/>
+      </c>
+      <c r="S55">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S55)+1</f>
         <v/>
       </c>
     </row>
@@ -46323,6 +50271,14 @@
       </c>
       <c r="Q56">
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q56)+1</f>
+        <v/>
+      </c>
+      <c r="R56">
+        <f>Q56 - S56</f>
+        <v/>
+      </c>
+      <c r="S56">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S56)+1</f>
         <v/>
       </c>
     </row>
@@ -46385,6 +50341,14 @@
       </c>
       <c r="Q58">
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q58)+1</f>
+        <v/>
+      </c>
+      <c r="R58">
+        <f>Q58 - S58</f>
+        <v/>
+      </c>
+      <c r="S58">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S58)+1</f>
         <v/>
       </c>
     </row>
@@ -46416,6 +50380,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q59)+1</f>
         <v/>
       </c>
+      <c r="R59">
+        <f>Q59 - S59</f>
+        <v/>
+      </c>
+      <c r="S59">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S59)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="23" t="inlineStr">
@@ -46445,6 +50417,14 @@
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q60)+1</f>
         <v/>
       </c>
+      <c r="R60">
+        <f>Q60 - S60</f>
+        <v/>
+      </c>
+      <c r="S60">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S60)+1</f>
+        <v/>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="23" t="inlineStr">
@@ -46472,6 +50452,14 @@
       <c r="O61" s="20" t="n"/>
       <c r="Q61">
         <f>COUNTIF(MRV!$Q$2:$Q$100,"&gt;"&amp;MRV!Q61)+1</f>
+        <v/>
+      </c>
+      <c r="R61">
+        <f>Q61 - S61</f>
+        <v/>
+      </c>
+      <c r="S61">
+        <f>COUNTIF(MRV!$S$2:$S$100,"&gt;"&amp;MRV!S61)+1</f>
         <v/>
       </c>
     </row>
@@ -47139,7 +51127,7 @@
       <c r="O100" s="20" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q132">
+  <autoFilter ref="A1:S132">
     <sortState ref="A2:O58">
       <sortCondition ref="A1:A58"/>
     </sortState>
@@ -48146,7 +52134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -48224,6 +52212,14 @@
       <c r="M1" s="31" t="n">
         <v>44415</v>
       </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="O1" s="31" t="n">
+        <v>44415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
@@ -48265,10 +52261,16 @@
         <v>450539</v>
       </c>
       <c r="L2" t="n">
-        <v>48125</v>
+        <v>48145</v>
       </c>
       <c r="M2" t="n">
-        <v>498664</v>
+        <v>498684</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>498684</v>
       </c>
     </row>
     <row r="3">
@@ -48310,10 +52312,16 @@
         <v>380452</v>
       </c>
       <c r="L3" t="n">
-        <v>29901</v>
+        <v>29915</v>
       </c>
       <c r="M3" t="n">
-        <v>410353</v>
+        <v>410367</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>410367</v>
       </c>
     </row>
     <row r="4">
@@ -48355,10 +52363,16 @@
         <v>337956</v>
       </c>
       <c r="L4" t="n">
-        <v>12588</v>
+        <v>12593</v>
       </c>
       <c r="M4" t="n">
-        <v>350544</v>
+        <v>350549</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>350549</v>
       </c>
     </row>
     <row r="5">
@@ -48400,10 +52414,16 @@
         <v>384868</v>
       </c>
       <c r="L5" t="n">
-        <v>42809</v>
+        <v>42823</v>
       </c>
       <c r="M5" t="n">
-        <v>427677</v>
+        <v>427691</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>427691</v>
       </c>
     </row>
     <row r="6">
@@ -48445,10 +52465,16 @@
         <v>341927</v>
       </c>
       <c r="L6" t="n">
-        <v>28542</v>
+        <v>28557</v>
       </c>
       <c r="M6" t="n">
-        <v>370469</v>
+        <v>370484</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>370484</v>
       </c>
     </row>
     <row r="7">
@@ -48490,10 +52516,16 @@
         <v>304166</v>
       </c>
       <c r="L7" t="n">
-        <v>25311</v>
+        <v>25324</v>
       </c>
       <c r="M7" t="n">
-        <v>329477</v>
+        <v>329490</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>329490</v>
       </c>
     </row>
     <row r="8">
@@ -48535,10 +52567,16 @@
         <v>297432</v>
       </c>
       <c r="L8" t="n">
-        <v>18364</v>
+        <v>18372</v>
       </c>
       <c r="M8" t="n">
-        <v>315796</v>
+        <v>315804</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>315804</v>
       </c>
     </row>
     <row r="9">
@@ -48580,10 +52618,16 @@
         <v>277021</v>
       </c>
       <c r="L9" t="n">
-        <v>11842</v>
+        <v>11852</v>
       </c>
       <c r="M9" t="n">
-        <v>288863</v>
+        <v>288873</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>288873</v>
       </c>
     </row>
     <row r="10">
@@ -48625,10 +52669,16 @@
         <v>301800</v>
       </c>
       <c r="L10" t="n">
-        <v>30700</v>
+        <v>30712</v>
       </c>
       <c r="M10" t="n">
-        <v>332500</v>
+        <v>332512</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>332512</v>
       </c>
     </row>
     <row r="11">
@@ -48670,10 +52720,16 @@
         <v>236707</v>
       </c>
       <c r="L11" t="n">
-        <v>5723</v>
+        <v>5726</v>
       </c>
       <c r="M11" t="n">
-        <v>242430</v>
+        <v>242433</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>242433</v>
       </c>
     </row>
     <row r="12">
@@ -48715,10 +52771,16 @@
         <v>225793</v>
       </c>
       <c r="L12" t="n">
-        <v>11096</v>
+        <v>11103</v>
       </c>
       <c r="M12" t="n">
-        <v>236889</v>
+        <v>236896</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>236896</v>
       </c>
     </row>
     <row r="13">
@@ -48760,10 +52822,16 @@
         <v>248346</v>
       </c>
       <c r="L13" t="n">
-        <v>27816</v>
+        <v>27826</v>
       </c>
       <c r="M13" t="n">
-        <v>276162</v>
+        <v>276172</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>276172</v>
       </c>
     </row>
     <row r="14">
@@ -48805,10 +52873,16 @@
         <v>208489</v>
       </c>
       <c r="L14" t="n">
-        <v>10792</v>
+        <v>10798</v>
       </c>
       <c r="M14" t="n">
-        <v>219281</v>
+        <v>219287</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>219287</v>
       </c>
     </row>
     <row r="15">
@@ -48850,10 +52924,16 @@
         <v>240290</v>
       </c>
       <c r="L15" t="n">
-        <v>19573</v>
+        <v>19582</v>
       </c>
       <c r="M15" t="n">
-        <v>259863</v>
+        <v>259872</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>259872</v>
       </c>
     </row>
     <row r="16">
@@ -48895,10 +52975,16 @@
         <v>195713</v>
       </c>
       <c r="L16" t="n">
-        <v>14742</v>
+        <v>14752</v>
       </c>
       <c r="M16" t="n">
-        <v>210455</v>
+        <v>210465</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>210465</v>
       </c>
     </row>
     <row r="17">
@@ -48940,10 +53026,16 @@
         <v>182779</v>
       </c>
       <c r="L17" t="n">
-        <v>13172</v>
+        <v>13174</v>
       </c>
       <c r="M17" t="n">
-        <v>195951</v>
+        <v>195953</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>195953</v>
       </c>
     </row>
     <row r="18">
@@ -48985,10 +53077,16 @@
         <v>213218</v>
       </c>
       <c r="L18" t="n">
-        <v>21248</v>
+        <v>21260</v>
       </c>
       <c r="M18" t="n">
-        <v>234466</v>
+        <v>234478</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>234478</v>
       </c>
     </row>
     <row r="19">
@@ -49030,10 +53128,16 @@
         <v>165782</v>
       </c>
       <c r="L19" t="n">
-        <v>6354</v>
+        <v>6357</v>
       </c>
       <c r="M19" t="n">
-        <v>172136</v>
+        <v>172139</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>172139</v>
       </c>
     </row>
     <row r="20">
@@ -49075,10 +53179,16 @@
         <v>156042</v>
       </c>
       <c r="L20" t="n">
-        <v>4384</v>
+        <v>4388</v>
       </c>
       <c r="M20" t="n">
-        <v>160426</v>
+        <v>160430</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>160430</v>
       </c>
     </row>
     <row r="21">
@@ -49120,10 +53230,16 @@
         <v>162215</v>
       </c>
       <c r="L21" t="n">
-        <v>8776</v>
+        <v>8783</v>
       </c>
       <c r="M21" t="n">
-        <v>170991</v>
+        <v>170998</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>170998</v>
       </c>
     </row>
     <row r="22">
@@ -49165,10 +53281,16 @@
         <v>159857</v>
       </c>
       <c r="L22" t="n">
-        <v>7789</v>
+        <v>7791</v>
       </c>
       <c r="M22" t="n">
-        <v>167646</v>
+        <v>167648</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>167648</v>
       </c>
     </row>
     <row r="23">
@@ -49210,10 +53332,16 @@
         <v>187278</v>
       </c>
       <c r="L23" t="n">
-        <v>23941</v>
+        <v>23953</v>
       </c>
       <c r="M23" t="n">
-        <v>211219</v>
+        <v>211231</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>211231</v>
       </c>
     </row>
     <row r="24">
@@ -49255,10 +53383,16 @@
         <v>201921</v>
       </c>
       <c r="L24" t="n">
-        <v>43411</v>
+        <v>43434</v>
       </c>
       <c r="M24" t="n">
-        <v>245332</v>
+        <v>245355</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>245355</v>
       </c>
     </row>
     <row r="25">
@@ -49300,10 +53434,16 @@
         <v>148222</v>
       </c>
       <c r="L25" t="n">
-        <v>6956</v>
+        <v>6960</v>
       </c>
       <c r="M25" t="n">
-        <v>155178</v>
+        <v>155182</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>155182</v>
       </c>
     </row>
     <row r="26">
@@ -49345,10 +53485,16 @@
         <v>141447</v>
       </c>
       <c r="L26" t="n">
-        <v>6487</v>
+        <v>6489</v>
       </c>
       <c r="M26" t="n">
-        <v>147934</v>
+        <v>147936</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>147936</v>
       </c>
     </row>
     <row r="27">
@@ -49390,10 +53536,16 @@
         <v>139201</v>
       </c>
       <c r="L27" t="n">
-        <v>6018</v>
+        <v>6021</v>
       </c>
       <c r="M27" t="n">
-        <v>145219</v>
+        <v>145222</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>145222</v>
       </c>
     </row>
     <row r="28">
@@ -49435,10 +53587,16 @@
         <v>142048</v>
       </c>
       <c r="L28" t="n">
-        <v>6358</v>
+        <v>6365</v>
       </c>
       <c r="M28" t="n">
-        <v>148406</v>
+        <v>148413</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>148413</v>
       </c>
     </row>
     <row r="29">
@@ -49480,10 +53638,16 @@
         <v>161498</v>
       </c>
       <c r="L29" t="n">
-        <v>19625</v>
+        <v>19635</v>
       </c>
       <c r="M29" t="n">
-        <v>181123</v>
+        <v>181133</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>181133</v>
       </c>
     </row>
     <row r="30">
@@ -49525,10 +53689,16 @@
         <v>137303</v>
       </c>
       <c r="L30" t="n">
-        <v>8231</v>
+        <v>8236</v>
       </c>
       <c r="M30" t="n">
-        <v>145534</v>
+        <v>145539</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>145539</v>
       </c>
     </row>
     <row r="31">
@@ -49570,10 +53740,16 @@
         <v>130378</v>
       </c>
       <c r="L31" t="n">
-        <v>5844</v>
+        <v>5848</v>
       </c>
       <c r="M31" t="n">
-        <v>136222</v>
+        <v>136226</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>136226</v>
       </c>
     </row>
     <row r="32">
@@ -49615,10 +53791,16 @@
         <v>133068</v>
       </c>
       <c r="L32" t="n">
-        <v>7816</v>
+        <v>7822</v>
       </c>
       <c r="M32" t="n">
-        <v>140884</v>
+        <v>140890</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>140890</v>
       </c>
     </row>
     <row r="33">
@@ -49660,10 +53842,16 @@
         <v>127496</v>
       </c>
       <c r="L33" t="n">
-        <v>4981</v>
+        <v>4986</v>
       </c>
       <c r="M33" t="n">
-        <v>132477</v>
+        <v>132482</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>132482</v>
       </c>
     </row>
     <row r="34">
@@ -49705,10 +53893,16 @@
         <v>127209</v>
       </c>
       <c r="L34" t="n">
-        <v>4949</v>
+        <v>4951</v>
       </c>
       <c r="M34" t="n">
-        <v>132158</v>
+        <v>132160</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>132160</v>
       </c>
     </row>
     <row r="35">
@@ -49750,10 +53944,16 @@
         <v>124931</v>
       </c>
       <c r="L35" t="n">
-        <v>4608</v>
+        <v>4611</v>
       </c>
       <c r="M35" t="n">
-        <v>129539</v>
+        <v>129542</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>129542</v>
       </c>
     </row>
     <row r="36">
@@ -49800,6 +54000,12 @@
       <c r="M36" t="n">
         <v>134077</v>
       </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>134077</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="inlineStr">
@@ -49840,10 +54046,16 @@
         <v>133807</v>
       </c>
       <c r="L37" t="n">
-        <v>9843</v>
+        <v>9849</v>
       </c>
       <c r="M37" t="n">
-        <v>143650</v>
+        <v>143656</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>143656</v>
       </c>
     </row>
     <row r="38" ht="28.8" customHeight="1">
@@ -49885,10 +54097,16 @@
         <v>154775</v>
       </c>
       <c r="L38" t="n">
-        <v>19835</v>
+        <v>19844</v>
       </c>
       <c r="M38" t="n">
-        <v>174610</v>
+        <v>174619</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>174619</v>
       </c>
     </row>
     <row r="39">
@@ -49930,10 +54148,16 @@
         <v>203853</v>
       </c>
       <c r="L39" t="n">
-        <v>50870</v>
+        <v>50893</v>
       </c>
       <c r="M39" t="n">
-        <v>254723</v>
+        <v>254746</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>254746</v>
       </c>
     </row>
     <row r="40">
@@ -49975,10 +54199,16 @@
         <v>134344</v>
       </c>
       <c r="L40" t="n">
-        <v>12061</v>
+        <v>12065</v>
       </c>
       <c r="M40" t="n">
-        <v>146405</v>
+        <v>146409</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>146409</v>
       </c>
     </row>
     <row r="41">
@@ -50020,10 +54250,16 @@
         <v>134582</v>
       </c>
       <c r="L41" t="n">
-        <v>14104</v>
+        <v>14111</v>
       </c>
       <c r="M41" t="n">
-        <v>148686</v>
+        <v>148693</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>148693</v>
       </c>
     </row>
     <row r="42">
@@ -50065,10 +54301,16 @@
         <v>122218</v>
       </c>
       <c r="L42" t="n">
-        <v>7153</v>
+        <v>7155</v>
       </c>
       <c r="M42" t="n">
-        <v>129371</v>
+        <v>129373</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>129373</v>
       </c>
     </row>
     <row r="43" ht="28.8" customHeight="1">
@@ -50110,10 +54352,16 @@
         <v>144062</v>
       </c>
       <c r="L43" t="n">
-        <v>16582</v>
+        <v>16587</v>
       </c>
       <c r="M43" t="n">
-        <v>160644</v>
+        <v>160649</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>160649</v>
       </c>
     </row>
     <row r="44">
@@ -50190,10 +54438,16 @@
         <v>130904</v>
       </c>
       <c r="L45" t="n">
-        <v>16113</v>
+        <v>16115</v>
       </c>
       <c r="M45" t="n">
-        <v>147017</v>
+        <v>147019</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>147019</v>
       </c>
     </row>
     <row r="46">
@@ -50270,10 +54524,16 @@
         <v>139067</v>
       </c>
       <c r="L47" t="n">
-        <v>22533</v>
+        <v>22537</v>
       </c>
       <c r="M47" t="n">
-        <v>161600</v>
+        <v>161604</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>161604</v>
       </c>
     </row>
     <row r="48">
@@ -50424,10 +54684,16 @@
         <v>134397</v>
       </c>
       <c r="L51" t="n">
-        <v>15238</v>
+        <v>15249</v>
       </c>
       <c r="M51" t="n">
-        <v>149635</v>
+        <v>149646</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>149646</v>
       </c>
     </row>
     <row r="52">
@@ -50453,10 +54719,16 @@
         <v>167772</v>
       </c>
       <c r="L52" t="n">
-        <v>90933</v>
+        <v>90976</v>
       </c>
       <c r="M52" t="n">
-        <v>258705</v>
+        <v>258748</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>258748</v>
       </c>
     </row>
     <row r="53" ht="28.8" customHeight="1">
@@ -50482,10 +54754,16 @@
         <v>131436</v>
       </c>
       <c r="L53" t="n">
-        <v>13790</v>
+        <v>13803</v>
       </c>
       <c r="M53" t="n">
-        <v>145226</v>
+        <v>145239</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>145239</v>
       </c>
     </row>
     <row r="54">
@@ -50511,10 +54789,16 @@
         <v>126871</v>
       </c>
       <c r="L54" t="n">
-        <v>58819</v>
+        <v>58847</v>
       </c>
       <c r="M54" t="n">
-        <v>185690</v>
+        <v>185718</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>185718</v>
       </c>
     </row>
     <row r="55">
@@ -50540,10 +54824,16 @@
         <v>121594</v>
       </c>
       <c r="L55" t="n">
-        <v>15788</v>
+        <v>15794</v>
       </c>
       <c r="M55" t="n">
-        <v>137382</v>
+        <v>137388</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>137388</v>
       </c>
     </row>
     <row r="56">
@@ -50567,7 +54857,13 @@
       <c r="J56" s="35" t="n"/>
       <c r="K56" s="11" t="n"/>
       <c r="M56" t="n">
-        <v>137797</v>
+        <v>137812</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>137812</v>
       </c>
     </row>
     <row r="57">
@@ -51143,7 +55439,7 @@
       <c r="K100" s="11" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M100">
+  <autoFilter ref="A1:O100">
     <sortState ref="A2:K55">
       <sortCondition ref="A1:A55"/>
     </sortState>
